--- a/Risk_Template.xlsx
+++ b/Risk_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harms\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harms\OneDrive\Desktop\Work\DMS Tau5\dms_demo_tau5\backend\src\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAAC6DF-55C9-4B58-AF7D-736D0EDE3078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8E1EA-1F5D-447E-A770-39DD09E7195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="683" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="16440" tabRatio="683" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Revisions" sheetId="15" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <definedName name="_EFF">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'#Ref'!$A$1:$H$4657</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0. Revisions'!$B$5:$F$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. General Information'!$B$5:$AV$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. General Information'!$B$5:$AV$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Standard Information'!$B$5:$K$169</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3. General Risk Register'!$B$5:$G$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4. General JRA Evnts and Ctrls'!$B$5:$E$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'4. General JRA Evnts and Ctrls'!$B$5:$F$176</definedName>
     <definedName name="_HOC">#REF!</definedName>
     <definedName name="_SAFEGRP">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'#Ref'!$A$1:$H$24</definedName>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1. General Information'!$A:$AW</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Standard Information'!$A$1:$L$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3. General Risk Register'!$A$1:$H$104</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'4. General JRA Evnts and Ctrls'!$A$1:$F$177</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'4. General JRA Evnts and Ctrls'!$A$1:$G$177</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5. 5x5 Matrix'!$A$1:$G$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'#Ref'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'0. Revisions'!$5:$5</definedName>
@@ -72,7 +72,7 @@
     <author>Abel Moetji</author>
   </authors>
   <commentList>
-    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{F5CED637-52B0-48A0-B492-BECC1E17F4A8}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{F5CED637-52B0-48A0-B492-BECC1E17F4A8}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN4" authorId="0" shapeId="0" xr:uid="{7BB9FFDC-ED76-4F27-985F-44CA5A3EA670}">
+    <comment ref="AH4" authorId="0" shapeId="0" xr:uid="{7BB9FFDC-ED76-4F27-985F-44CA5A3EA670}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="382">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -1023,15 +1023,9 @@
     <t>Disciplines</t>
   </si>
   <si>
-    <t>Standard Definitions</t>
-  </si>
-  <si>
     <t>Likelihood of Event</t>
   </si>
   <si>
-    <t>Standard Abbreviations</t>
-  </si>
-  <si>
     <t>Consequence Level</t>
   </si>
   <si>
@@ -1366,6 +1360,15 @@
   </si>
   <si>
     <t>Mobile Machinery</t>
+  </si>
+  <si>
+    <t>Standard Designations</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Main Task Step</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1534,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1588,18 +1591,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1728,43 +1725,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
@@ -1813,7 +1773,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2050,27 +2010,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2080,62 +2040,59 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2152,7 +2109,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2165,26 +2122,14 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2192,13 +2137,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2213,18 +2155,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,7 +2162,7 @@
     <cellStyle name="Normal 5" xfId="3" xr:uid="{151F580F-10B6-4A4F-A70C-A45C677C25FB}"/>
     <cellStyle name="Normal 9" xfId="1" xr:uid="{35A4EF1C-1C92-4220-B3BB-B271881CFCDD}"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
@@ -2254,16 +2184,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCB6F6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4056,7 +3976,7 @@
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>1360713</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -4356,7 +4276,7 @@
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4452,7 +4372,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>248887</xdr:colOff>
+      <xdr:colOff>50104</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>562610</xdr:rowOff>
     </xdr:to>
@@ -4751,154 +4671,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4DB93B9-9BB5-4807-B423-CDE49E544CAE}" name="Table15" displayName="Table15" ref="P1:P29" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4DB93B9-9BB5-4807-B423-CDE49E544CAE}" name="Table15" displayName="Table15" ref="P1:P29" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="P1:P29" xr:uid="{E4DB93B9-9BB5-4807-B423-CDE49E544CAE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A4E83315-1532-4AAA-B923-2F307BFCA1CF}" name="Hazards" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{A4E83315-1532-4AAA-B923-2F307BFCA1CF}" name="Hazards" dataDxfId="67" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0FCA2908-9398-4E06-8D4A-AA405986137B}" name="Table6" displayName="Table6" ref="A20:A22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0FCA2908-9398-4E06-8D4A-AA405986137B}" name="Table6" displayName="Table6" ref="A20:A22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A20:A22" xr:uid="{0FCA2908-9398-4E06-8D4A-AA405986137B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{356754D1-7D62-4C3B-B57A-69359BABF779}" name="Area Availability" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{356754D1-7D62-4C3B-B57A-69359BABF779}" name="Area Availability" dataDxfId="36" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C59949D0-7D9B-4005-8500-D07430169BBA}" name="Table7" displayName="Table7" ref="A31:A34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C59949D0-7D9B-4005-8500-D07430169BBA}" name="Table7" displayName="Table7" ref="A31:A34" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A31:A34" xr:uid="{C59949D0-7D9B-4005-8500-D07430169BBA}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{67E618F0-E9E8-44B3-ACC9-CF52EEEE4259}" name="Control Information" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{67E618F0-E9E8-44B3-ACC9-CF52EEEE4259}" name="Control Information" dataDxfId="33" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{13304DDB-7F05-451A-A3F7-1F8D3717FB26}" name="Table8" displayName="Table8" ref="C31:C35" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{13304DDB-7F05-451A-A3F7-1F8D3717FB26}" name="Table8" displayName="Table8" ref="C31:C35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="C31:C35" xr:uid="{13304DDB-7F05-451A-A3F7-1F8D3717FB26}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9FA7C898-B51E-48CD-92EF-C24E75422995}" name="Impact" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{9FA7C898-B51E-48CD-92EF-C24E75422995}" name="Impact" dataDxfId="30" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20BA4A9C-64E9-4AEF-B3E5-06080D2DFE85}" name="Table9" displayName="Table9" ref="E20:E27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowCellStyle="Normal 9" dataCellStyle="Normal 5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20BA4A9C-64E9-4AEF-B3E5-06080D2DFE85}" name="Table9" displayName="Table9" ref="E20:E27" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="Normal 9" dataCellStyle="Normal 5">
   <autoFilter ref="E20:E27" xr:uid="{20BA4A9C-64E9-4AEF-B3E5-06080D2DFE85}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{52735A1B-A75E-4276-A8A4-3CB92E7D172D}" name="I_C" dataDxfId="28" dataCellStyle="Normal 5"/>
+    <tableColumn id="1" xr3:uid="{52735A1B-A75E-4276-A8A4-3CB92E7D172D}" name="I_C" dataDxfId="27" dataCellStyle="Normal 5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A2D68AEA-52A0-44F0-A125-B17009EE685F}" name="Table10" displayName="Table10" ref="C1:C3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A2D68AEA-52A0-44F0-A125-B17009EE685F}" name="Table10" displayName="Table10" ref="C1:C3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="C1:C3" xr:uid="{A2D68AEA-52A0-44F0-A125-B17009EE685F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CA259FA7-AC99-4199-A618-8F3ABBFD9E1F}" name="YesNo" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{CA259FA7-AC99-4199-A618-8F3ABBFD9E1F}" name="YesNo" dataDxfId="24" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D326FF98-4466-4C63-AFAB-8AE31CC81CFF}" name="Table1" displayName="Table1" ref="T1:T10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D326FF98-4466-4C63-AFAB-8AE31CC81CFF}" name="Table1" displayName="Table1" ref="T1:T10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Normal 2">
   <autoFilter ref="T1:T10" xr:uid="{D326FF98-4466-4C63-AFAB-8AE31CC81CFF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{130EABA6-8BB2-4BC0-8AA8-0F2E876233A3}" name="Control Level" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{130EABA6-8BB2-4BC0-8AA8-0F2E876233A3}" name="Control Level" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89FED767-CB12-44E0-AD37-C4C058411E3B}" name="Table16" displayName="Table16" ref="R1:R12" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{89FED767-CB12-44E0-AD37-C4C058411E3B}" name="Table16" displayName="Table16" ref="R1:R12" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="R1:R12" xr:uid="{89FED767-CB12-44E0-AD37-C4C058411E3B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3E7C20E1-0083-4FA6-B8CD-F18BCFC29C0C}" name="Functions" dataDxfId="65" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3E7C20E1-0083-4FA6-B8CD-F18BCFC29C0C}" name="Functions" dataDxfId="64" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33461173-53BB-4469-B43B-C30157FF6B61}" name="Table17" displayName="Table17" ref="E1:E6" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33461173-53BB-4469-B43B-C30157FF6B61}" name="Table17" displayName="Table17" ref="E1:E6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="E1:E6" xr:uid="{33461173-53BB-4469-B43B-C30157FF6B61}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FABE7ED9-6B7C-44E0-AD4D-8D1323A4E4F6}" name="Likelihood" dataDxfId="62" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{FABE7ED9-6B7C-44E0-AD4D-8D1323A4E4F6}" name="Likelihood" dataDxfId="61" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8550E780-9FBF-45EB-9022-1895A1AF2ED0}" name="Table18" displayName="Table18" ref="G1:G6" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowCellStyle="Normal 2" dataCellStyle="Normal 9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8550E780-9FBF-45EB-9022-1895A1AF2ED0}" name="Table18" displayName="Table18" ref="G1:G6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="Normal 9">
   <autoFilter ref="G1:G6" xr:uid="{8550E780-9FBF-45EB-9022-1895A1AF2ED0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2299BFF3-AB2F-4B7A-95F8-98325172D078}" name="Consequence" dataDxfId="59" dataCellStyle="Normal 9"/>
+    <tableColumn id="1" xr3:uid="{2299BFF3-AB2F-4B7A-95F8-98325172D078}" name="Consequence" dataDxfId="58" dataCellStyle="Normal 9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D764ED73-5559-4234-BD02-EB4696632F02}" name="Table23" displayName="Table23" ref="B12:F16" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D764ED73-5559-4234-BD02-EB4696632F02}" name="Table23" displayName="Table23" ref="B12:F16" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="B12:F16" xr:uid="{D764ED73-5559-4234-BD02-EB4696632F02}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7665F04-656B-4655-BD2E-06B67D38E17F}" name="1 (L)" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{76ABF063-4E24-4CFA-86B9-0DC19CF24BBC}" name="3 (L)" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{D10437F8-ACDB-4874-8C10-6908FD164343}" name="6 (M)" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{2F00B1EC-703D-47C1-8612-94C91C8E9BC2}" name="10 (M)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{C475F2A3-C677-435D-9202-AD792BCFE835}" name="15 (S)" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{C7665F04-656B-4655-BD2E-06B67D38E17F}" name="1 (L)" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{76ABF063-4E24-4CFA-86B9-0DC19CF24BBC}" name="3 (L)" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D10437F8-ACDB-4874-8C10-6908FD164343}" name="6 (M)" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{2F00B1EC-703D-47C1-8612-94C91C8E9BC2}" name="10 (M)" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{C475F2A3-C677-435D-9202-AD792BCFE835}" name="15 (S)" dataDxfId="51" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CE8A27-FB09-4D6F-BFEF-53A495779208}" name="Table24" displayName="Table24" ref="I1:I7" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35CE8A27-FB09-4D6F-BFEF-53A495779208}" name="Table24" displayName="Table24" ref="I1:I7" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="I1:I7" xr:uid="{35CE8A27-FB09-4D6F-BFEF-53A495779208}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{67A595D5-4B09-40D8-AF0A-30E7CB998DB1}" name="Control Type" dataDxfId="49" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{67A595D5-4B09-40D8-AF0A-30E7CB998DB1}" name="Control Type" dataDxfId="48" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3C4E97BF-F9BA-47B6-8E06-E99D4DB8A8A1}" name="Table25" displayName="Table25" ref="K1:K5" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" headerRowCellStyle="Normal 2" dataCellStyle="Normal 9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3C4E97BF-F9BA-47B6-8E06-E99D4DB8A8A1}" name="Table25" displayName="Table25" ref="K1:K5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Normal 2" dataCellStyle="Normal 9">
   <autoFilter ref="K1:K5" xr:uid="{3C4E97BF-F9BA-47B6-8E06-E99D4DB8A8A1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{28CA88D8-332A-4CFD-8883-2D8BDB97106E}" name="Control Quality" dataDxfId="46" dataCellStyle="Normal 9"/>
+    <tableColumn id="1" xr3:uid="{28CA88D8-332A-4CFD-8883-2D8BDB97106E}" name="Control Quality" dataDxfId="45" dataCellStyle="Normal 9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3025DD08-08F4-4688-ACCB-86792B0FD2C5}" name="Table2" displayName="Table2" ref="A1:A8" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3025DD08-08F4-4688-ACCB-86792B0FD2C5}" name="Table2" displayName="Table2" ref="A1:A8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:A8" xr:uid="{3025DD08-08F4-4688-ACCB-86792B0FD2C5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{74B604CB-6600-40E4-BC6B-168E69749558}" name="Consequence_x000a_Type" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{74B604CB-6600-40E4-BC6B-168E69749558}" name="Consequence_x000a_Type" dataDxfId="42" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72A36D82-7F17-4619-896F-7F0787B6574E}" name="Table4" displayName="Table4" ref="C20:C23" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72A36D82-7F17-4619-896F-7F0787B6574E}" name="Table4" displayName="Table4" ref="C20:C23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="C20:C23" xr:uid="{72A36D82-7F17-4619-896F-7F0787B6574E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A6FFA3B8-0CD1-4148-8182-FF1AF41B244D}" name="Control_Detail" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{A6FFA3B8-0CD1-4148-8182-FF1AF41B244D}" name="Control_Detail" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5198,10 +5118,10 @@
     </row>
     <row r="2" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="2:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -5211,13 +5131,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="114"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="2:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="77" t="s">
@@ -5951,11 +5871,11 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF7EAC89"/>
   </sheetPr>
-  <dimension ref="B1:AV103"/>
+  <dimension ref="B1:AV102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="62" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6023,18 +5943,18 @@
     </row>
     <row r="3" spans="2:48" s="1" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:48" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="G4" s="120" t="s">
-        <v>379</v>
-      </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="G4" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
       <c r="L4" s="67" t="s">
         <v>2</v>
       </c>
@@ -6056,7 +5976,7 @@
       <c r="Y4" s="67"/>
       <c r="Z4" s="67"/>
       <c r="AB4" s="67" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AC4" s="67"/>
       <c r="AD4" s="67"/>
@@ -6065,25 +5985,25 @@
       </c>
       <c r="AG4" s="67"/>
       <c r="AH4" s="67"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="AJ4" s="116" t="s">
         <v>265</v>
       </c>
-      <c r="AK4" s="120"/>
+      <c r="AK4" s="116"/>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="120" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN4" s="120"/>
-      <c r="AP4" s="119" t="s">
+      <c r="AM4" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN4" s="116"/>
+      <c r="AP4" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AT4" s="119" t="s">
-        <v>354</v>
-      </c>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AT4" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
     </row>
     <row r="5" spans="2:48" s="84" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
@@ -6105,7 +6025,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J5" s="68" t="s">
         <v>18</v>
@@ -6175,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="AN5" s="68" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AP5" s="70" t="s">
         <v>9</v>
@@ -6190,10 +6110,10 @@
         <v>9</v>
       </c>
       <c r="AU5" s="68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AV5" s="68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
@@ -6202,8 +6122,8 @@
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
       <c r="G6" s="71"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="72"/>
       <c r="L6" s="71"/>
       <c r="M6" s="72"/>
@@ -6229,17 +6149,17 @@
       <c r="AM6" s="73"/>
       <c r="AN6" s="74"/>
       <c r="AP6" s="73"/>
-      <c r="AQ6" s="116"/>
+      <c r="AQ6" s="72"/>
       <c r="AR6" s="72"/>
       <c r="AT6" s="73" cm="1">
         <f t="array" ref="AT6:AT7">IFERROR(_xlfn.SEQUENCE(COUNTA(AU6:AU1048576)),"")</f>
         <v>1</v>
       </c>
       <c r="AU6" s="72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AV6" s="72" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
@@ -6275,16 +6195,16 @@
       <c r="AM7" s="71"/>
       <c r="AN7" s="74"/>
       <c r="AP7" s="73"/>
-      <c r="AQ7" s="117"/>
+      <c r="AQ7" s="72"/>
       <c r="AR7" s="72"/>
       <c r="AT7" s="73">
         <v>2</v>
       </c>
       <c r="AU7" s="72" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AV7" s="72" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
@@ -6320,7 +6240,7 @@
       <c r="AM8" s="71"/>
       <c r="AN8" s="74"/>
       <c r="AP8" s="73"/>
-      <c r="AQ8" s="117"/>
+      <c r="AQ8" s="72"/>
       <c r="AR8" s="72"/>
       <c r="AT8" s="73"/>
       <c r="AU8" s="72"/>
@@ -6332,8 +6252,8 @@
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="G9" s="71"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="72"/>
       <c r="L9" s="71"/>
       <c r="M9" s="72"/>
@@ -6359,7 +6279,7 @@
       <c r="AM9" s="71"/>
       <c r="AN9" s="74"/>
       <c r="AP9" s="73"/>
-      <c r="AQ9" s="118"/>
+      <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
       <c r="AT9" s="73"/>
       <c r="AU9" s="72"/>
@@ -6371,8 +6291,8 @@
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="72"/>
       <c r="L10" s="71"/>
       <c r="M10" s="72"/>
@@ -6398,7 +6318,7 @@
       <c r="AM10" s="71"/>
       <c r="AN10" s="74"/>
       <c r="AP10" s="73"/>
-      <c r="AQ10" s="116"/>
+      <c r="AQ10" s="72"/>
       <c r="AR10" s="72"/>
       <c r="AT10" s="73"/>
       <c r="AU10" s="72"/>
@@ -6410,8 +6330,8 @@
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="G11" s="71"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="72"/>
       <c r="L11" s="71"/>
       <c r="M11" s="72"/>
@@ -6437,7 +6357,7 @@
       <c r="AM11" s="71"/>
       <c r="AN11" s="74"/>
       <c r="AP11" s="73"/>
-      <c r="AQ11" s="117"/>
+      <c r="AQ11" s="72"/>
       <c r="AR11" s="72"/>
       <c r="AT11" s="73"/>
       <c r="AU11" s="72"/>
@@ -6476,7 +6396,7 @@
       <c r="AM12" s="71"/>
       <c r="AN12" s="74"/>
       <c r="AP12" s="73"/>
-      <c r="AQ12" s="117"/>
+      <c r="AQ12" s="72"/>
       <c r="AR12" s="72"/>
       <c r="AT12" s="73"/>
       <c r="AU12" s="72"/>
@@ -6515,7 +6435,7 @@
       <c r="AM13" s="71"/>
       <c r="AN13" s="74"/>
       <c r="AP13" s="73"/>
-      <c r="AQ13" s="118"/>
+      <c r="AQ13" s="72"/>
       <c r="AR13" s="72"/>
       <c r="AT13" s="73"/>
       <c r="AU13" s="72"/>
@@ -6527,8 +6447,8 @@
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
       <c r="G14" s="71"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
       <c r="J14" s="72"/>
       <c r="L14" s="71"/>
       <c r="M14" s="72"/>
@@ -6554,7 +6474,7 @@
       <c r="AM14" s="71"/>
       <c r="AN14" s="74"/>
       <c r="AP14" s="73"/>
-      <c r="AQ14" s="116"/>
+      <c r="AQ14" s="72"/>
       <c r="AR14" s="72"/>
       <c r="AT14" s="73"/>
       <c r="AU14" s="72"/>
@@ -6593,7 +6513,7 @@
       <c r="AM15" s="71"/>
       <c r="AN15" s="74"/>
       <c r="AP15" s="73"/>
-      <c r="AQ15" s="117"/>
+      <c r="AQ15" s="72"/>
       <c r="AR15" s="72"/>
       <c r="AT15" s="73"/>
       <c r="AU15" s="72"/>
@@ -6631,7 +6551,7 @@
       <c r="AM16" s="71"/>
       <c r="AN16" s="74"/>
       <c r="AP16" s="73"/>
-      <c r="AQ16" s="117"/>
+      <c r="AQ16" s="72"/>
       <c r="AR16" s="72"/>
       <c r="AT16" s="73"/>
       <c r="AU16" s="72"/>
@@ -6670,7 +6590,7 @@
       <c r="AM17" s="71"/>
       <c r="AN17" s="74"/>
       <c r="AP17" s="73"/>
-      <c r="AQ17" s="118"/>
+      <c r="AQ17" s="72"/>
       <c r="AR17" s="72"/>
       <c r="AT17" s="73"/>
       <c r="AU17" s="72"/>
@@ -6682,8 +6602,8 @@
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="G18" s="71"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
       <c r="J18" s="72"/>
       <c r="L18" s="71"/>
       <c r="M18" s="72"/>
@@ -6709,7 +6629,7 @@
       <c r="AM18" s="71"/>
       <c r="AN18" s="74"/>
       <c r="AP18" s="73"/>
-      <c r="AQ18" s="116"/>
+      <c r="AQ18" s="72"/>
       <c r="AR18" s="72"/>
       <c r="AT18" s="73"/>
       <c r="AU18" s="72"/>
@@ -6748,7 +6668,7 @@
       <c r="AM19" s="71"/>
       <c r="AN19" s="74"/>
       <c r="AP19" s="73"/>
-      <c r="AQ19" s="117"/>
+      <c r="AQ19" s="72"/>
       <c r="AR19" s="72"/>
       <c r="AT19" s="73"/>
       <c r="AU19" s="72"/>
@@ -6787,7 +6707,7 @@
       <c r="AM20" s="71"/>
       <c r="AN20" s="74"/>
       <c r="AP20" s="73"/>
-      <c r="AQ20" s="117"/>
+      <c r="AQ20" s="72"/>
       <c r="AR20" s="72"/>
       <c r="AT20" s="73"/>
       <c r="AU20" s="72"/>
@@ -6799,8 +6719,8 @@
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
       <c r="J21" s="72"/>
       <c r="L21" s="71"/>
       <c r="M21" s="72"/>
@@ -6826,7 +6746,7 @@
       <c r="AM21" s="71"/>
       <c r="AN21" s="74"/>
       <c r="AP21" s="73"/>
-      <c r="AQ21" s="118"/>
+      <c r="AQ21" s="72"/>
       <c r="AR21" s="72"/>
       <c r="AT21" s="73"/>
       <c r="AU21" s="72"/>
@@ -6865,7 +6785,7 @@
       <c r="AM22" s="71"/>
       <c r="AN22" s="74"/>
       <c r="AP22" s="73"/>
-      <c r="AQ22" s="116"/>
+      <c r="AQ22" s="72"/>
       <c r="AR22" s="72"/>
       <c r="AT22" s="73"/>
       <c r="AU22" s="72"/>
@@ -6904,7 +6824,7 @@
       <c r="AM23" s="71"/>
       <c r="AN23" s="74"/>
       <c r="AP23" s="73"/>
-      <c r="AQ23" s="117"/>
+      <c r="AQ23" s="72"/>
       <c r="AR23" s="72"/>
       <c r="AT23" s="73"/>
       <c r="AU23" s="72"/>
@@ -6943,7 +6863,7 @@
       <c r="AM24" s="71"/>
       <c r="AN24" s="74"/>
       <c r="AP24" s="73"/>
-      <c r="AQ24" s="117"/>
+      <c r="AQ24" s="72"/>
       <c r="AR24" s="72"/>
       <c r="AT24" s="73"/>
       <c r="AU24" s="72"/>
@@ -6982,7 +6902,7 @@
       <c r="AM25" s="71"/>
       <c r="AN25" s="74"/>
       <c r="AP25" s="73"/>
-      <c r="AQ25" s="118"/>
+      <c r="AQ25" s="72"/>
       <c r="AR25" s="72"/>
       <c r="AT25" s="73"/>
       <c r="AU25" s="72"/>
@@ -6994,8 +6914,8 @@
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
       <c r="J26" s="72"/>
       <c r="L26" s="71"/>
       <c r="M26" s="72"/>
@@ -7072,8 +6992,8 @@
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
       <c r="G28" s="71"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
       <c r="J28" s="72"/>
       <c r="L28" s="71"/>
       <c r="M28" s="72"/>
@@ -7111,8 +7031,8 @@
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
       <c r="G29" s="71"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
       <c r="J29" s="72"/>
       <c r="L29" s="71"/>
       <c r="M29" s="72"/>
@@ -7150,8 +7070,8 @@
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="110"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="72"/>
       <c r="L30" s="71"/>
       <c r="M30" s="72"/>
@@ -7189,8 +7109,8 @@
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
       <c r="G31" s="71"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
       <c r="J31" s="72"/>
       <c r="L31" s="71"/>
       <c r="M31" s="72"/>
@@ -7229,7 +7149,7 @@
       <c r="E32" s="72"/>
       <c r="G32" s="71"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="108"/>
+      <c r="I32" s="107"/>
       <c r="J32" s="72"/>
       <c r="L32" s="71"/>
       <c r="M32" s="72"/>
@@ -7306,8 +7226,8 @@
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="G34" s="71"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="107"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
       <c r="J34" s="72"/>
       <c r="L34" s="71"/>
       <c r="M34" s="72"/>
@@ -8080,7 +8000,7 @@
       <c r="AU53" s="72"/>
       <c r="AV53" s="72"/>
     </row>
-    <row r="54" spans="2:48" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -8174,7 +8094,6 @@
       <c r="Q56" s="72"/>
       <c r="R56" s="72"/>
       <c r="T56" s="71"/>
-      <c r="U56" s="72"/>
       <c r="V56" s="72"/>
       <c r="X56" s="71"/>
       <c r="Y56" s="72"/>
@@ -8213,6 +8132,7 @@
       <c r="Q57" s="72"/>
       <c r="R57" s="72"/>
       <c r="T57" s="71"/>
+      <c r="U57" s="72"/>
       <c r="V57" s="72"/>
       <c r="X57" s="71"/>
       <c r="Y57" s="72"/>
@@ -9885,6 +9805,9 @@
       <c r="L100" s="71"/>
       <c r="M100" s="72"/>
       <c r="N100" s="72"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
       <c r="T100" s="71"/>
       <c r="U100" s="72"/>
       <c r="V100" s="72"/>
@@ -9921,6 +9844,9 @@
       <c r="L101" s="71"/>
       <c r="M101" s="72"/>
       <c r="N101" s="72"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
       <c r="T101" s="71"/>
       <c r="U101" s="72"/>
       <c r="V101" s="72"/>
@@ -9957,6 +9883,9 @@
       <c r="L102" s="71"/>
       <c r="M102" s="72"/>
       <c r="N102" s="72"/>
+      <c r="P102" s="71"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
       <c r="T102" s="71"/>
       <c r="U102" s="72"/>
       <c r="V102" s="72"/>
@@ -9981,110 +9910,66 @@
       <c r="AU102" s="72"/>
       <c r="AV102" s="72"/>
     </row>
-    <row r="103" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B103" s="71"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="72"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="72"/>
-      <c r="N103" s="72"/>
-      <c r="T103" s="71"/>
-      <c r="U103" s="72"/>
-      <c r="V103" s="72"/>
-      <c r="X103" s="71"/>
-      <c r="Y103" s="72"/>
-      <c r="Z103" s="72"/>
-      <c r="AB103" s="71"/>
-      <c r="AC103" s="72"/>
-      <c r="AD103" s="72"/>
-      <c r="AF103" s="71"/>
-      <c r="AG103" s="72"/>
-      <c r="AH103" s="72"/>
-      <c r="AJ103" s="71"/>
-      <c r="AK103" s="72"/>
-      <c r="AL103" s="69"/>
-      <c r="AM103" s="71"/>
-      <c r="AN103" s="74"/>
-      <c r="AP103" s="73"/>
-      <c r="AQ103" s="72"/>
-      <c r="AR103" s="72"/>
-      <c r="AT103" s="73"/>
-      <c r="AU103" s="72"/>
-      <c r="AV103" s="72"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:AV57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AV56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H6:J34">
     <sortCondition ref="H6:H34"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="6">
     <mergeCell ref="AT4:AV4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="AM4:AN4"/>
     <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AQ6:AQ9"/>
-    <mergeCell ref="AQ10:AQ13"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="AQ18:AQ21"/>
-    <mergeCell ref="AQ22:AQ25"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="250"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H103">
-    <cfRule type="duplicateValues" dxfId="20" priority="382"/>
+  <conditionalFormatting sqref="H6:H102">
+    <cfRule type="duplicateValues" dxfId="19" priority="386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 H21:H24 H16:H17 H1:H11 H35:H1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="292"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q24 Q26:Q34 Q36:Q1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:U36">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U37:U40 U1:U33 U58:U1048576 U42:U56">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U41">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U57:U1048576 U37:U40 U1:U33 U42:U55">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y15 Y17:Y1048576 AC16">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC1048576 AC1:AC15">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AG1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AK1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AN1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ10 AQ14 AQ18 AQ22 AQ26:AQ103">
-    <cfRule type="duplicateValues" dxfId="5" priority="53"/>
+  <conditionalFormatting sqref="AQ6:AQ102">
+    <cfRule type="duplicateValues" dxfId="5" priority="425"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1:AR1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
@@ -10117,11 +10002,11 @@
     <tabColor rgb="FF002060"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AQ169"/>
+  <dimension ref="B1:AK169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R122" sqref="R122"/>
+      <selection pane="bottomLeft" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10144,28 +10029,22 @@
     <col min="16" max="16" width="8.85546875" style="1"/>
     <col min="17" max="17" width="2.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="3.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
     <col min="20" max="20" width="61.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="1"/>
     <col min="22" max="22" width="2.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="1"/>
-    <col min="25" max="25" width="61.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="1"/>
-    <col min="27" max="27" width="2.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="61.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" style="1"/>
-    <col min="32" max="32" width="2.42578125" style="1" customWidth="1"/>
-    <col min="33" max="38" width="31.140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="2.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="1" customWidth="1"/>
-    <col min="41" max="43" width="20" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="4.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="2.42578125" style="1" customWidth="1"/>
+    <col min="27" max="32" width="31.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="2.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" style="1" customWidth="1"/>
+    <col min="35" max="37" width="20" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10177,19 +10056,19 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:43" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="110"/>
       <c r="J2" s="65"/>
       <c r="K2" s="65"/>
     </row>
-    <row r="3" spans="2:43" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -10201,70 +10080,63 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:43" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="M4" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="R4" s="121" t="s">
+    <row r="4" spans="2:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="112" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="M4" s="113" t="s">
+        <v>353</v>
+      </c>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="R4" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="W4" s="114" t="s">
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="W4" s="113" t="s">
+        <v>379</v>
+      </c>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="AA4" s="113" t="s">
         <v>267</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AB4" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AG4" s="114" t="s">
-        <v>269</v>
-      </c>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AN4" s="114" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-    </row>
-    <row r="5" spans="2:43" ht="36" x14ac:dyDescent="0.25">
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AH4" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+    </row>
+    <row r="5" spans="2:37" ht="36" x14ac:dyDescent="0.25">
       <c r="B5" s="77" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>366</v>
+        <v>354</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>364</v>
       </c>
       <c r="F5" s="78" t="s">
         <v>26</v>
@@ -10281,8 +10153,8 @@
       <c r="J5" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="98" t="s">
-        <v>353</v>
+      <c r="K5" s="97" t="s">
+        <v>351</v>
       </c>
       <c r="M5" s="78" t="s">
         <v>9</v>
@@ -10296,83 +10168,68 @@
       <c r="P5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="R5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="97" t="s">
+      <c r="S5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="97" t="s">
+      <c r="T5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="97" t="s">
+      <c r="U5" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W5" s="78" t="s">
         <v>9</v>
       </c>
       <c r="X5" s="78" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="Y5" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB5" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC5" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD5" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE5" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH5" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG5" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH5" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="AI5" s="78" t="s">
-        <v>343</v>
-      </c>
       <c r="AJ5" s="78" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="AK5" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL5" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="AN5" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO5" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="AQ5" s="78" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="2:43" ht="24" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="86"/>
       <c r="C6" s="81"/>
       <c r="D6" s="81"/>
       <c r="E6" s="81"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="130"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="81"/>
       <c r="M6" s="83"/>
       <c r="N6" s="81"/>
@@ -10385,52 +10242,47 @@
       <c r="W6" s="83"/>
       <c r="X6" s="81"/>
       <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AG6" s="87" t="s">
-        <v>310</v>
+      <c r="AA6" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB6" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC6" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD6" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE6" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF6" s="81" t="s">
+        <v>277</v>
       </c>
       <c r="AH6" s="81" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="AI6" s="81" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="AJ6" s="81" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="AK6" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL6" s="81" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN6" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO6" s="81" t="s">
-        <v>325</v>
-      </c>
-      <c r="AP6" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ6" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="2:43" ht="60" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="86"/>
       <c r="C7" s="81"/>
       <c r="D7" s="81"/>
       <c r="E7" s="81"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="81"/>
       <c r="M7" s="83"/>
       <c r="N7" s="81"/>
@@ -10443,52 +10295,47 @@
       <c r="W7" s="83"/>
       <c r="X7" s="81"/>
       <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AG7" s="87" t="s">
-        <v>311</v>
+      <c r="AA7" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB7" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC7" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD7" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE7" s="81" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF7" s="81" t="s">
+        <v>282</v>
       </c>
       <c r="AH7" s="81" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="AI7" s="81" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="AJ7" s="81" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="AK7" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL7" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN7" s="81" t="s">
-        <v>321</v>
-      </c>
-      <c r="AO7" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="AP7" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ7" s="81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="2:43" ht="48" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" ht="48" x14ac:dyDescent="0.25">
       <c r="B8" s="86"/>
-      <c r="C8" s="109"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="130"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="81"/>
       <c r="M8" s="83"/>
       <c r="N8" s="81"/>
@@ -10501,52 +10348,47 @@
       <c r="W8" s="83"/>
       <c r="X8" s="81"/>
       <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AG8" s="87" t="s">
-        <v>312</v>
+      <c r="AA8" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB8" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC8" s="81" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD8" s="81" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE8" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF8" s="81" t="s">
+        <v>287</v>
       </c>
       <c r="AH8" s="81" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="AI8" s="81" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="AJ8" s="81" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="AK8" s="81" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL8" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN8" s="81" t="s">
-        <v>322</v>
-      </c>
-      <c r="AO8" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="AP8" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ8" s="81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="2:43" ht="48" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="48" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="130"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="108"/>
       <c r="K9" s="81"/>
       <c r="M9" s="83"/>
       <c r="N9" s="81"/>
@@ -10559,52 +10401,47 @@
       <c r="W9" s="83"/>
       <c r="X9" s="81"/>
       <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AG9" s="87" t="s">
-        <v>313</v>
+      <c r="AA9" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB9" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC9" s="81" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD9" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE9" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF9" s="81" t="s">
+        <v>292</v>
       </c>
       <c r="AH9" s="81" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="AI9" s="81" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="AJ9" s="81" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="AK9" s="81" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL9" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN9" s="81" t="s">
-        <v>323</v>
-      </c>
-      <c r="AO9" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="AP9" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ9" s="81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:43" ht="48" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" ht="48" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="130"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="81"/>
       <c r="M10" s="83"/>
       <c r="N10" s="81"/>
@@ -10617,2488 +10454,2013 @@
       <c r="W10" s="83"/>
       <c r="X10" s="81"/>
       <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AG10" s="87" t="s">
-        <v>314</v>
+      <c r="AA10" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB10" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC10" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD10" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE10" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF10" s="81" t="s">
+        <v>297</v>
       </c>
       <c r="AH10" s="81" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="AI10" s="81" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="AJ10" s="81" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="AK10" s="81" t="s">
-        <v>298</v>
-      </c>
-      <c r="AL10" s="81" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN10" s="81" t="s">
-        <v>324</v>
-      </c>
-      <c r="AO10" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="AP10" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ10" s="81" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="2:43" ht="24" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="86"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="108"/>
       <c r="K11" s="81"/>
       <c r="M11" s="83"/>
       <c r="N11" s="81"/>
       <c r="O11" s="81"/>
       <c r="P11" s="81"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AG11" s="87" t="s">
-        <v>315</v>
+      <c r="W11" s="83"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="AA11" s="87" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB11" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC11" s="81" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD11" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE11" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF11" s="81" t="s">
+        <v>302</v>
       </c>
       <c r="AH11" s="81" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AI11" s="81" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AJ11" s="81" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="AK11" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL11" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN11" s="81" t="s">
-        <v>331</v>
-      </c>
-      <c r="AO11" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="AP11" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ11" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="2:43" ht="36" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" ht="36" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="130"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="108"/>
       <c r="K12" s="81"/>
       <c r="M12" s="83"/>
       <c r="N12" s="81"/>
       <c r="O12" s="81"/>
       <c r="P12" s="81"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AG12" s="87" t="s">
-        <v>316</v>
+      <c r="W12" s="83"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="AA12" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB12" s="81" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC12" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD12" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE12" s="81" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF12" s="81" t="s">
+        <v>307</v>
       </c>
       <c r="AH12" s="81" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="AI12" s="81" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AJ12" s="81" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="AK12" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL12" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="AN12" s="81" t="s">
-        <v>333</v>
-      </c>
-      <c r="AO12" s="81" t="s">
-        <v>334</v>
-      </c>
-      <c r="AP12" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ12" s="81" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="86"/>
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="130"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="108"/>
       <c r="K13" s="81"/>
       <c r="M13" s="83"/>
       <c r="N13" s="81"/>
       <c r="O13" s="81"/>
       <c r="P13" s="81"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AN13" s="81" t="s">
-        <v>335</v>
-      </c>
-      <c r="AO13" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP13" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ13" s="81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="2:43" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="83"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="AH13" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI13" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ13" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK13" s="81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="130"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="108"/>
       <c r="K14" s="81"/>
       <c r="M14" s="83"/>
       <c r="N14" s="81"/>
       <c r="O14" s="81"/>
       <c r="P14" s="81"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AN14" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO14" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="AP14" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ14" s="81" t="s">
+      <c r="W14" s="83"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="AH14" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI14" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ14" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK14" s="81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="86"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="130"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="108"/>
       <c r="K15" s="81"/>
       <c r="M15" s="83"/>
       <c r="N15" s="81"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AN15" s="81" t="s">
+      <c r="W15" s="83"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="AH15" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI15" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ15" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="AO15" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP15" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ15" s="81" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AK15" s="81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16" s="86"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="130"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="108"/>
       <c r="K16" s="81"/>
       <c r="M16" s="83"/>
       <c r="N16" s="81"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W16" s="83"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="86"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="130"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="108"/>
       <c r="K17" s="81"/>
       <c r="M17" s="83"/>
       <c r="N17" s="81"/>
       <c r="O17" s="81"/>
       <c r="P17" s="81"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-    </row>
-    <row r="18" spans="2:31" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="83"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+    </row>
+    <row r="18" spans="2:25" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="86"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="130"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="108"/>
       <c r="K18" s="81"/>
       <c r="M18" s="83"/>
       <c r="N18" s="81"/>
       <c r="O18" s="81"/>
       <c r="P18" s="81"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W18" s="83"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
       <c r="C19" s="81"/>
       <c r="D19" s="81"/>
       <c r="E19" s="81"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="130"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="108"/>
       <c r="K19" s="81"/>
       <c r="M19" s="83"/>
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W19" s="83"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="86"/>
       <c r="C20" s="81"/>
       <c r="D20" s="81"/>
       <c r="E20" s="81"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="130"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="108"/>
       <c r="K20" s="81"/>
       <c r="M20" s="83"/>
       <c r="N20" s="81"/>
       <c r="O20" s="81"/>
       <c r="P20" s="81"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W20" s="83"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="130"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="108"/>
       <c r="K21" s="81"/>
       <c r="M21" s="83"/>
       <c r="N21" s="81"/>
       <c r="O21" s="81"/>
       <c r="P21" s="81"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-    </row>
-    <row r="22" spans="2:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="83"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+    </row>
+    <row r="22" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="86"/>
       <c r="C22" s="81"/>
       <c r="D22" s="81"/>
       <c r="E22" s="81"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="130"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="108"/>
       <c r="K22" s="81"/>
       <c r="M22" s="83"/>
       <c r="N22" s="81"/>
       <c r="O22" s="81"/>
       <c r="P22" s="81"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W22" s="83"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="86"/>
       <c r="C23" s="81"/>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="130"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="81"/>
       <c r="M23" s="83"/>
       <c r="N23" s="81"/>
       <c r="O23" s="81"/>
       <c r="P23" s="81"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W23" s="83"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="86"/>
       <c r="C24" s="81"/>
       <c r="D24" s="81"/>
       <c r="E24" s="81"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="130"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="81"/>
       <c r="M24" s="83"/>
       <c r="N24" s="81"/>
       <c r="O24" s="81"/>
       <c r="P24" s="81"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W24" s="83"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
       <c r="C25" s="81"/>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="130"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="108"/>
       <c r="K25" s="81"/>
       <c r="M25" s="83"/>
       <c r="N25" s="81"/>
       <c r="O25" s="81"/>
       <c r="P25" s="81"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-    </row>
-    <row r="26" spans="2:31" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="83"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+    </row>
+    <row r="26" spans="2:25" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="86"/>
       <c r="C26" s="81"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="130"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="108"/>
       <c r="K26" s="81"/>
       <c r="M26" s="83"/>
       <c r="N26" s="81"/>
       <c r="O26" s="81"/>
       <c r="P26" s="81"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-    </row>
-    <row r="27" spans="2:31" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="83"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+    </row>
+    <row r="27" spans="2:25" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="86"/>
       <c r="C27" s="81"/>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="130"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="108"/>
       <c r="K27" s="81"/>
       <c r="M27" s="83"/>
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
       <c r="P27" s="81"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-    </row>
-    <row r="28" spans="2:31" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="83"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+    </row>
+    <row r="28" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="86"/>
       <c r="C28" s="81"/>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="130"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="108"/>
       <c r="K28" s="81"/>
       <c r="M28" s="83"/>
       <c r="N28" s="81"/>
       <c r="O28" s="81"/>
       <c r="P28" s="81"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="AB28" s="83"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W28" s="83"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="86"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="130"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="108"/>
       <c r="K29" s="81"/>
       <c r="M29" s="83"/>
       <c r="N29" s="81"/>
       <c r="O29" s="81"/>
       <c r="P29" s="81"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="AB29" s="83"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W29" s="83"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="86"/>
       <c r="C30" s="81"/>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="130"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="108"/>
       <c r="K30" s="81"/>
       <c r="M30" s="83"/>
       <c r="N30" s="81"/>
       <c r="O30" s="81"/>
       <c r="P30" s="81"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="AB30" s="83"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W30" s="83"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="86"/>
       <c r="C31" s="81"/>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="130"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="108"/>
       <c r="K31" s="81"/>
       <c r="M31" s="83"/>
       <c r="N31" s="81"/>
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W31" s="83"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="86"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="130"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="108"/>
       <c r="K32" s="81"/>
       <c r="M32" s="83"/>
       <c r="N32" s="81"/>
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="81"/>
-      <c r="AB32" s="83"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W32" s="83"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="86"/>
       <c r="C33" s="81"/>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="130"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="108"/>
       <c r="K33" s="81"/>
       <c r="M33" s="83"/>
       <c r="N33" s="81"/>
       <c r="O33" s="81"/>
       <c r="P33" s="81"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="81"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W33" s="83"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="86"/>
       <c r="C34" s="81"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="130"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="108"/>
       <c r="K34" s="81"/>
       <c r="M34" s="83"/>
       <c r="N34" s="81"/>
       <c r="O34" s="81"/>
       <c r="P34" s="81"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-    </row>
-    <row r="35" spans="2:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="83"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+    </row>
+    <row r="35" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="86"/>
       <c r="C35" s="81"/>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="130"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="108"/>
       <c r="K35" s="81"/>
       <c r="M35" s="83"/>
       <c r="N35" s="81"/>
       <c r="O35" s="81"/>
       <c r="P35" s="81"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="81"/>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W35" s="83"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="81"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="86"/>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="130"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="108"/>
       <c r="K36" s="81"/>
       <c r="M36" s="83"/>
       <c r="N36" s="81"/>
       <c r="O36" s="81"/>
       <c r="P36" s="81"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="AB36" s="83"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W36" s="83"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="86"/>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="130"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="108"/>
       <c r="K37" s="81"/>
       <c r="M37" s="83"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
       <c r="P37" s="81"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W37" s="83"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="86"/>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="130"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="108"/>
       <c r="K38" s="81"/>
       <c r="M38" s="83"/>
       <c r="N38" s="81"/>
       <c r="O38" s="81"/>
       <c r="P38" s="81"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="AB38" s="83"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W38" s="83"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="86"/>
       <c r="C39" s="81"/>
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="130"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="108"/>
       <c r="K39" s="81"/>
       <c r="M39" s="83"/>
       <c r="N39" s="81"/>
       <c r="O39" s="81"/>
       <c r="P39" s="81"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="81"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W39" s="83"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="86"/>
       <c r="C40" s="81"/>
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="130"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="108"/>
       <c r="K40" s="81"/>
       <c r="M40" s="83"/>
       <c r="N40" s="81"/>
       <c r="O40" s="81"/>
       <c r="P40" s="81"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-      <c r="U40" s="81"/>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="81"/>
-    </row>
-    <row r="41" spans="2:31" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="83"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+    </row>
+    <row r="41" spans="2:25" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="86"/>
       <c r="C41" s="81"/>
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="130"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="108"/>
       <c r="K41" s="81"/>
       <c r="M41" s="83"/>
       <c r="N41" s="81"/>
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="81"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W41" s="83"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="81"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="86"/>
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="130"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="108"/>
       <c r="K42" s="81"/>
       <c r="M42" s="83"/>
       <c r="N42" s="81"/>
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="AB42" s="83"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="81"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W42" s="83"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="86"/>
       <c r="C43" s="81"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="130"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="108"/>
       <c r="K43" s="81"/>
       <c r="M43" s="83"/>
       <c r="N43" s="81"/>
       <c r="O43" s="81"/>
       <c r="P43" s="81"/>
-      <c r="R43" s="83"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-      <c r="U43" s="81"/>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="81"/>
-    </row>
-    <row r="44" spans="2:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="83"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+    </row>
+    <row r="44" spans="2:25" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="86"/>
       <c r="C44" s="81"/>
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="130"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="108"/>
       <c r="K44" s="81"/>
       <c r="M44" s="83"/>
       <c r="N44" s="81"/>
       <c r="O44" s="81"/>
       <c r="P44" s="81"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="AB44" s="83"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="81"/>
-    </row>
-    <row r="45" spans="2:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="83"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+    </row>
+    <row r="45" spans="2:25" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="86"/>
-      <c r="C45" s="109"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="130"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="108"/>
       <c r="K45" s="81"/>
       <c r="M45" s="83"/>
       <c r="N45" s="81"/>
       <c r="O45" s="81"/>
       <c r="P45" s="81"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="AB45" s="83"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="81"/>
-    </row>
-    <row r="46" spans="2:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="83"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+    </row>
+    <row r="46" spans="2:25" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="86"/>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="130"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="108"/>
       <c r="K46" s="81"/>
       <c r="M46" s="83"/>
       <c r="N46" s="81"/>
       <c r="O46" s="81"/>
       <c r="P46" s="81"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="AB46" s="83"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W46" s="83"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" s="86"/>
       <c r="C47" s="81"/>
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="130"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="108"/>
       <c r="K47" s="81"/>
       <c r="M47" s="83"/>
       <c r="N47" s="81"/>
       <c r="O47" s="81"/>
       <c r="P47" s="81"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="AB47" s="83"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W47" s="83"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="86"/>
       <c r="C48" s="81"/>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="130"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="108"/>
       <c r="K48" s="81"/>
       <c r="M48" s="83"/>
       <c r="N48" s="81"/>
       <c r="O48" s="81"/>
       <c r="P48" s="81"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="AB48" s="83"/>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="81"/>
-      <c r="AE48" s="81"/>
-    </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W48" s="83"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="81"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="86"/>
       <c r="C49" s="81"/>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="130"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="108"/>
       <c r="K49" s="81"/>
       <c r="M49" s="83"/>
       <c r="N49" s="81"/>
       <c r="O49" s="81"/>
       <c r="P49" s="81"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="AB49" s="83"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="81"/>
-      <c r="AE49" s="81"/>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W49" s="83"/>
+      <c r="X49" s="81"/>
+      <c r="Y49" s="81"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="86"/>
       <c r="C50" s="81"/>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="130"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="108"/>
       <c r="K50" s="81"/>
       <c r="M50" s="83"/>
       <c r="N50" s="81"/>
       <c r="O50" s="81"/>
       <c r="P50" s="81"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
-      <c r="AB50" s="83"/>
-      <c r="AC50" s="81"/>
-      <c r="AD50" s="81"/>
-      <c r="AE50" s="81"/>
-    </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W50" s="83"/>
+      <c r="X50" s="81"/>
+      <c r="Y50" s="81"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="86"/>
       <c r="C51" s="81"/>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="130"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="108"/>
       <c r="K51" s="81"/>
       <c r="M51" s="83"/>
       <c r="N51" s="81"/>
       <c r="O51" s="81"/>
       <c r="P51" s="81"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
-      <c r="AB51" s="83"/>
-      <c r="AC51" s="81"/>
-      <c r="AD51" s="81"/>
-      <c r="AE51" s="81"/>
-    </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W51" s="83"/>
+      <c r="X51" s="81"/>
+      <c r="Y51" s="81"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="86"/>
       <c r="C52" s="81"/>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="130"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="108"/>
       <c r="K52" s="81"/>
       <c r="M52" s="83"/>
       <c r="N52" s="81"/>
       <c r="O52" s="81"/>
       <c r="P52" s="81"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="AB52" s="83"/>
-      <c r="AC52" s="81"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="81"/>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W52" s="83"/>
+      <c r="X52" s="81"/>
+      <c r="Y52" s="81"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="86"/>
       <c r="C53" s="81"/>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="130"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="108"/>
       <c r="K53" s="81"/>
       <c r="M53" s="83"/>
       <c r="N53" s="81"/>
       <c r="O53" s="81"/>
       <c r="P53" s="81"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="AB53" s="83"/>
-      <c r="AC53" s="81"/>
-      <c r="AD53" s="81"/>
-      <c r="AE53" s="81"/>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W53" s="83"/>
+      <c r="X53" s="81"/>
+      <c r="Y53" s="81"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="86"/>
       <c r="C54" s="81"/>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="130"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="108"/>
       <c r="K54" s="81"/>
       <c r="M54" s="83"/>
       <c r="N54" s="81"/>
       <c r="O54" s="81"/>
       <c r="P54" s="81"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="AB54" s="83"/>
-      <c r="AC54" s="81"/>
-      <c r="AD54" s="81"/>
-      <c r="AE54" s="81"/>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W54" s="83"/>
+      <c r="X54" s="81"/>
+      <c r="Y54" s="81"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="86"/>
       <c r="C55" s="81"/>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="130"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="108"/>
       <c r="K55" s="81"/>
       <c r="M55" s="83"/>
       <c r="N55" s="81"/>
       <c r="O55" s="81"/>
       <c r="P55" s="81"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="AB55" s="83"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="81"/>
-      <c r="AE55" s="81"/>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W55" s="83"/>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="81"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="86"/>
       <c r="C56" s="81"/>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="130"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="108"/>
       <c r="K56" s="81"/>
       <c r="M56" s="83"/>
       <c r="N56" s="81"/>
       <c r="O56" s="81"/>
       <c r="P56" s="81"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="81"/>
-      <c r="T56" s="81"/>
-      <c r="U56" s="81"/>
-      <c r="AB56" s="83"/>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="81"/>
-      <c r="AE56" s="81"/>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W56" s="83"/>
+      <c r="X56" s="81"/>
+      <c r="Y56" s="81"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="86"/>
       <c r="C57" s="81"/>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="130"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="108"/>
       <c r="K57" s="81"/>
       <c r="M57" s="83"/>
       <c r="N57" s="81"/>
       <c r="O57" s="81"/>
       <c r="P57" s="81"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
-      <c r="U57" s="81"/>
-      <c r="AB57" s="83"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="81"/>
-      <c r="AE57" s="81"/>
-    </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W57" s="83"/>
+      <c r="X57" s="81"/>
+      <c r="Y57" s="81"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="86"/>
       <c r="C58" s="81"/>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="130"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="108"/>
       <c r="K58" s="81"/>
       <c r="M58" s="83"/>
       <c r="N58" s="81"/>
       <c r="O58" s="81"/>
       <c r="P58" s="81"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="81"/>
-      <c r="U58" s="81"/>
-      <c r="AB58" s="83"/>
-      <c r="AC58" s="81"/>
-      <c r="AD58" s="81"/>
-      <c r="AE58" s="81"/>
-    </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W58" s="83"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="86"/>
       <c r="C59" s="81"/>
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="130"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="108"/>
       <c r="K59" s="81"/>
       <c r="M59" s="83"/>
       <c r="N59" s="81"/>
       <c r="O59" s="81"/>
       <c r="P59" s="81"/>
-      <c r="R59" s="83"/>
-      <c r="S59" s="81"/>
-      <c r="T59" s="81"/>
-      <c r="U59" s="81"/>
-      <c r="AB59" s="83"/>
-      <c r="AC59" s="81"/>
-      <c r="AD59" s="81"/>
-      <c r="AE59" s="81"/>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W59" s="83"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="86"/>
       <c r="C60" s="81"/>
       <c r="D60" s="81"/>
       <c r="E60" s="81"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="130"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="108"/>
       <c r="K60" s="81"/>
       <c r="M60" s="83"/>
       <c r="N60" s="81"/>
       <c r="O60" s="81"/>
       <c r="P60" s="81"/>
-      <c r="R60" s="83"/>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
-      <c r="U60" s="81"/>
-      <c r="AB60" s="83"/>
-      <c r="AC60" s="81"/>
-      <c r="AD60" s="81"/>
-      <c r="AE60" s="81"/>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W60" s="83"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="81"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="86"/>
       <c r="C61" s="81"/>
       <c r="D61" s="81"/>
       <c r="E61" s="81"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="130"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="108"/>
       <c r="K61" s="81"/>
       <c r="M61" s="83"/>
       <c r="N61" s="81"/>
       <c r="O61" s="81"/>
       <c r="P61" s="81"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="81"/>
-      <c r="AB61" s="83"/>
-      <c r="AC61" s="81"/>
-      <c r="AD61" s="81"/>
-      <c r="AE61" s="81"/>
-    </row>
-    <row r="62" spans="2:31" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="83"/>
+      <c r="X61" s="81"/>
+      <c r="Y61" s="81"/>
+    </row>
+    <row r="62" spans="2:25" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="86"/>
       <c r="C62" s="81"/>
       <c r="D62" s="81"/>
       <c r="E62" s="81"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="130"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="108"/>
       <c r="K62" s="81"/>
       <c r="M62" s="83"/>
       <c r="N62" s="81"/>
       <c r="O62" s="81"/>
       <c r="P62" s="81"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
-      <c r="U62" s="81"/>
-      <c r="AB62" s="83"/>
-      <c r="AC62" s="81"/>
-      <c r="AD62" s="81"/>
-      <c r="AE62" s="81"/>
-    </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W62" s="83"/>
+      <c r="X62" s="81"/>
+      <c r="Y62" s="81"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="86"/>
       <c r="C63" s="81"/>
       <c r="D63" s="81"/>
       <c r="E63" s="81"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="130"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="82"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="108"/>
       <c r="K63" s="81"/>
       <c r="M63" s="83"/>
       <c r="N63" s="81"/>
       <c r="O63" s="81"/>
       <c r="P63" s="81"/>
-      <c r="R63" s="83"/>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81"/>
-      <c r="U63" s="81"/>
-      <c r="AB63" s="83"/>
-      <c r="AC63" s="81"/>
-      <c r="AD63" s="81"/>
-      <c r="AE63" s="81"/>
-    </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W63" s="83"/>
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="86"/>
       <c r="C64" s="81"/>
       <c r="D64" s="81"/>
       <c r="E64" s="81"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="130"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="108"/>
       <c r="K64" s="81"/>
       <c r="M64" s="83"/>
       <c r="N64" s="81"/>
       <c r="O64" s="81"/>
       <c r="P64" s="81"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="81"/>
-      <c r="T64" s="81"/>
-      <c r="U64" s="81"/>
-      <c r="AB64" s="83"/>
-      <c r="AC64" s="81"/>
-      <c r="AD64" s="81"/>
-      <c r="AE64" s="81"/>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W64" s="83"/>
+      <c r="X64" s="81"/>
+      <c r="Y64" s="81"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="86"/>
       <c r="C65" s="81"/>
       <c r="D65" s="81"/>
       <c r="E65" s="81"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="128"/>
-      <c r="J65" s="130"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="108"/>
       <c r="K65" s="81"/>
       <c r="M65" s="83"/>
       <c r="N65" s="81"/>
       <c r="O65" s="81"/>
       <c r="P65" s="81"/>
-      <c r="R65" s="83"/>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
-      <c r="U65" s="81"/>
-      <c r="AB65" s="83"/>
-      <c r="AC65" s="81"/>
-      <c r="AD65" s="81"/>
-      <c r="AE65" s="81"/>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W65" s="83"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="86"/>
       <c r="C66" s="81"/>
       <c r="D66" s="81"/>
       <c r="E66" s="81"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="130"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="108"/>
       <c r="K66" s="81"/>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
       <c r="O66" s="81"/>
       <c r="P66" s="81"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="81"/>
-      <c r="U66" s="81"/>
-      <c r="AB66" s="83"/>
-      <c r="AC66" s="81"/>
-      <c r="AD66" s="81"/>
-      <c r="AE66" s="81"/>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W66" s="83"/>
+      <c r="X66" s="81"/>
+      <c r="Y66" s="81"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="86"/>
       <c r="C67" s="81"/>
       <c r="D67" s="81"/>
       <c r="E67" s="81"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="129"/>
-      <c r="H67" s="129"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="130"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="108"/>
       <c r="K67" s="81"/>
       <c r="M67" s="83"/>
       <c r="N67" s="81"/>
       <c r="O67" s="81"/>
       <c r="P67" s="81"/>
-      <c r="R67" s="83"/>
-      <c r="S67" s="81"/>
-      <c r="T67" s="81"/>
-      <c r="U67" s="81"/>
-      <c r="AB67" s="83"/>
-      <c r="AC67" s="81"/>
-      <c r="AD67" s="81"/>
-      <c r="AE67" s="81"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W67" s="83"/>
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="86"/>
       <c r="C68" s="81"/>
       <c r="D68" s="81"/>
       <c r="E68" s="81"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="130"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="108"/>
       <c r="K68" s="81"/>
       <c r="M68" s="83"/>
       <c r="N68" s="81"/>
       <c r="O68" s="81"/>
       <c r="P68" s="81"/>
-      <c r="R68" s="83"/>
-      <c r="S68" s="81"/>
-      <c r="T68" s="81"/>
-      <c r="U68" s="81"/>
-      <c r="AB68" s="83"/>
-      <c r="AC68" s="81"/>
-      <c r="AD68" s="81"/>
-      <c r="AE68" s="81"/>
-    </row>
-    <row r="69" spans="2:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="83"/>
+      <c r="X68" s="81"/>
+      <c r="Y68" s="81"/>
+    </row>
+    <row r="69" spans="2:25" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="86"/>
       <c r="C69" s="81"/>
       <c r="D69" s="81"/>
       <c r="E69" s="81"/>
-      <c r="F69" s="128"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="129"/>
-      <c r="I69" s="128"/>
-      <c r="J69" s="130"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="108"/>
       <c r="K69" s="81"/>
       <c r="M69" s="83"/>
       <c r="N69" s="81"/>
       <c r="O69" s="81"/>
       <c r="P69" s="81"/>
-      <c r="R69" s="83"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="AB69" s="83"/>
-      <c r="AC69" s="81"/>
-      <c r="AD69" s="81"/>
-      <c r="AE69" s="81"/>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W69" s="83"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="86"/>
       <c r="C70" s="81"/>
       <c r="D70" s="81"/>
       <c r="E70" s="81"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="129"/>
-      <c r="H70" s="129"/>
-      <c r="I70" s="128"/>
-      <c r="J70" s="130"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="108"/>
       <c r="K70" s="81"/>
       <c r="M70" s="83"/>
       <c r="N70" s="81"/>
       <c r="O70" s="81"/>
       <c r="P70" s="81"/>
-      <c r="R70" s="83"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="81"/>
-      <c r="AB70" s="83"/>
-      <c r="AC70" s="81"/>
-      <c r="AD70" s="81"/>
-      <c r="AE70" s="81"/>
-    </row>
-    <row r="71" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="83"/>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+    </row>
+    <row r="71" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="86"/>
       <c r="C71" s="81"/>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="130"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="108"/>
       <c r="K71" s="81"/>
       <c r="M71" s="83"/>
       <c r="N71" s="81"/>
       <c r="O71" s="81"/>
       <c r="P71" s="81"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="AB71" s="83"/>
-      <c r="AC71" s="81"/>
-      <c r="AD71" s="81"/>
-      <c r="AE71" s="81"/>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W71" s="83"/>
+      <c r="X71" s="81"/>
+      <c r="Y71" s="81"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="86"/>
       <c r="C72" s="81"/>
       <c r="D72" s="81"/>
       <c r="E72" s="81"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="130"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="108"/>
       <c r="K72" s="81"/>
       <c r="M72" s="83"/>
       <c r="N72" s="81"/>
       <c r="O72" s="81"/>
       <c r="P72" s="81"/>
-      <c r="R72" s="83"/>
-      <c r="S72" s="81"/>
-      <c r="T72" s="81"/>
-      <c r="U72" s="81"/>
-      <c r="AB72" s="83"/>
-      <c r="AC72" s="81"/>
-      <c r="AD72" s="81"/>
-      <c r="AE72" s="81"/>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W72" s="83"/>
+      <c r="X72" s="81"/>
+      <c r="Y72" s="81"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="86"/>
       <c r="C73" s="81"/>
       <c r="D73" s="81"/>
       <c r="E73" s="81"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="129"/>
-      <c r="H73" s="129"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="130"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="108"/>
       <c r="K73" s="81"/>
       <c r="M73" s="83"/>
       <c r="N73" s="81"/>
       <c r="O73" s="81"/>
       <c r="P73" s="81"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="81"/>
-      <c r="T73" s="81"/>
-      <c r="U73" s="81"/>
-      <c r="AB73" s="83"/>
-      <c r="AC73" s="81"/>
-      <c r="AD73" s="81"/>
-      <c r="AE73" s="81"/>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W73" s="83"/>
+      <c r="X73" s="81"/>
+      <c r="Y73" s="81"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="86"/>
       <c r="C74" s="81"/>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="129"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="130"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="108"/>
       <c r="K74" s="81"/>
       <c r="M74" s="83"/>
       <c r="N74" s="81"/>
       <c r="O74" s="81"/>
       <c r="P74" s="81"/>
-      <c r="R74" s="83"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="81"/>
-      <c r="U74" s="81"/>
-      <c r="AB74" s="83"/>
-      <c r="AC74" s="81"/>
-      <c r="AD74" s="81"/>
-      <c r="AE74" s="81"/>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W74" s="83"/>
+      <c r="X74" s="81"/>
+      <c r="Y74" s="81"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="86"/>
       <c r="C75" s="81"/>
       <c r="D75" s="81"/>
       <c r="E75" s="81"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="130"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="108"/>
       <c r="K75" s="81"/>
       <c r="M75" s="83"/>
       <c r="N75" s="81"/>
       <c r="O75" s="81"/>
       <c r="P75" s="81"/>
-      <c r="R75" s="83"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="81"/>
-      <c r="U75" s="81"/>
-      <c r="AB75" s="83"/>
-      <c r="AC75" s="81"/>
-      <c r="AD75" s="81"/>
-      <c r="AE75" s="81"/>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W75" s="83"/>
+      <c r="X75" s="81"/>
+      <c r="Y75" s="81"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="86"/>
       <c r="C76" s="81"/>
       <c r="D76" s="81"/>
       <c r="E76" s="81"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="129"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="130"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="108"/>
       <c r="K76" s="81"/>
       <c r="M76" s="83"/>
       <c r="N76" s="81"/>
       <c r="O76" s="81"/>
       <c r="P76" s="81"/>
-      <c r="R76" s="83"/>
-      <c r="S76" s="81"/>
-      <c r="T76" s="81"/>
-      <c r="U76" s="81"/>
-      <c r="AB76" s="83"/>
-      <c r="AC76" s="81"/>
-      <c r="AD76" s="81"/>
-      <c r="AE76" s="81"/>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W76" s="83"/>
+      <c r="X76" s="81"/>
+      <c r="Y76" s="81"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="86"/>
       <c r="C77" s="81"/>
       <c r="D77" s="81"/>
       <c r="E77" s="81"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="129"/>
-      <c r="I77" s="128"/>
-      <c r="J77" s="130"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="108"/>
       <c r="K77" s="81"/>
       <c r="M77" s="83"/>
       <c r="N77" s="81"/>
       <c r="O77" s="81"/>
       <c r="P77" s="81"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="81"/>
-      <c r="T77" s="81"/>
-      <c r="U77" s="81"/>
-      <c r="AB77" s="83"/>
-      <c r="AC77" s="81"/>
-      <c r="AD77" s="81"/>
-      <c r="AE77" s="81"/>
-    </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W77" s="83"/>
+      <c r="X77" s="81"/>
+      <c r="Y77" s="81"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="86"/>
       <c r="C78" s="81"/>
       <c r="D78" s="81"/>
       <c r="E78" s="81"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="129"/>
-      <c r="H78" s="129"/>
-      <c r="I78" s="128"/>
-      <c r="J78" s="130"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="82"/>
+      <c r="H78" s="82"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="108"/>
       <c r="K78" s="81"/>
       <c r="M78" s="83"/>
       <c r="N78" s="81"/>
       <c r="O78" s="81"/>
       <c r="P78" s="81"/>
-      <c r="R78" s="83"/>
-      <c r="S78" s="81"/>
-      <c r="T78" s="81"/>
-      <c r="U78" s="81"/>
-      <c r="AB78" s="83"/>
-      <c r="AC78" s="81"/>
-      <c r="AD78" s="81"/>
-      <c r="AE78" s="81"/>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W78" s="83"/>
+      <c r="X78" s="81"/>
+      <c r="Y78" s="81"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="86"/>
       <c r="C79" s="81"/>
       <c r="D79" s="81"/>
       <c r="E79" s="81"/>
-      <c r="F79" s="128"/>
-      <c r="G79" s="129"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="128"/>
-      <c r="J79" s="130"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="82"/>
+      <c r="H79" s="82"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="108"/>
       <c r="K79" s="81"/>
       <c r="M79" s="83"/>
       <c r="N79" s="81"/>
       <c r="O79" s="81"/>
       <c r="P79" s="81"/>
-      <c r="R79" s="83"/>
-      <c r="S79" s="81"/>
-      <c r="T79" s="81"/>
-      <c r="U79" s="81"/>
-      <c r="AB79" s="83"/>
-      <c r="AC79" s="81"/>
-      <c r="AD79" s="81"/>
-      <c r="AE79" s="81"/>
-    </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W79" s="83"/>
+      <c r="X79" s="81"/>
+      <c r="Y79" s="81"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="86"/>
       <c r="C80" s="81"/>
       <c r="D80" s="81"/>
       <c r="E80" s="81"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="129"/>
-      <c r="H80" s="129"/>
-      <c r="I80" s="128"/>
-      <c r="J80" s="130"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="82"/>
+      <c r="H80" s="82"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="108"/>
       <c r="K80" s="81"/>
       <c r="M80" s="83"/>
       <c r="N80" s="81"/>
       <c r="O80" s="81"/>
       <c r="P80" s="81"/>
-      <c r="R80" s="83"/>
-      <c r="S80" s="81"/>
-      <c r="T80" s="81"/>
-      <c r="U80" s="81"/>
-      <c r="AB80" s="83"/>
-      <c r="AC80" s="81"/>
-      <c r="AD80" s="81"/>
-      <c r="AE80" s="81"/>
-    </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W80" s="83"/>
+      <c r="X80" s="81"/>
+      <c r="Y80" s="81"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="86"/>
       <c r="C81" s="81"/>
       <c r="D81" s="81"/>
       <c r="E81" s="81"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="129"/>
-      <c r="H81" s="129"/>
-      <c r="I81" s="128"/>
-      <c r="J81" s="130"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="108"/>
       <c r="K81" s="81"/>
       <c r="M81" s="83"/>
       <c r="N81" s="81"/>
       <c r="O81" s="81"/>
       <c r="P81" s="81"/>
-      <c r="R81" s="83"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
-      <c r="U81" s="81"/>
-      <c r="AB81" s="83"/>
-      <c r="AC81" s="81"/>
-      <c r="AD81" s="81"/>
-      <c r="AE81" s="81"/>
-    </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W81" s="83"/>
+      <c r="X81" s="81"/>
+      <c r="Y81" s="81"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="86"/>
       <c r="C82" s="81"/>
       <c r="D82" s="81"/>
       <c r="E82" s="81"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="130"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="82"/>
+      <c r="H82" s="82"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="108"/>
       <c r="K82" s="81"/>
       <c r="M82" s="83"/>
       <c r="N82" s="81"/>
       <c r="O82" s="81"/>
       <c r="P82" s="81"/>
-      <c r="R82" s="83"/>
-      <c r="S82" s="81"/>
-      <c r="T82" s="81"/>
-      <c r="U82" s="81"/>
-      <c r="AB82" s="83"/>
-      <c r="AC82" s="81"/>
-      <c r="AD82" s="81"/>
-      <c r="AE82" s="81"/>
-    </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W82" s="83"/>
+      <c r="X82" s="81"/>
+      <c r="Y82" s="81"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="86"/>
       <c r="C83" s="81"/>
       <c r="D83" s="81"/>
       <c r="E83" s="81"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="129"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="130"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="82"/>
+      <c r="H83" s="82"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="108"/>
       <c r="K83" s="81"/>
       <c r="M83" s="83"/>
       <c r="N83" s="81"/>
       <c r="O83" s="81"/>
       <c r="P83" s="81"/>
-      <c r="R83" s="83"/>
-      <c r="S83" s="81"/>
-      <c r="T83" s="81"/>
-      <c r="U83" s="81"/>
-      <c r="AB83" s="83"/>
-      <c r="AC83" s="81"/>
-      <c r="AD83" s="81"/>
-      <c r="AE83" s="81"/>
-    </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W83" s="83"/>
+      <c r="X83" s="81"/>
+      <c r="Y83" s="81"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="86"/>
       <c r="C84" s="81"/>
       <c r="D84" s="81"/>
       <c r="E84" s="81"/>
-      <c r="F84" s="128"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="128"/>
-      <c r="J84" s="130"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="82"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="108"/>
       <c r="K84" s="81"/>
       <c r="M84" s="83"/>
       <c r="N84" s="81"/>
       <c r="O84" s="81"/>
       <c r="P84" s="81"/>
-      <c r="R84" s="83"/>
-      <c r="S84" s="81"/>
-      <c r="T84" s="81"/>
-      <c r="U84" s="81"/>
-      <c r="AB84" s="83"/>
-      <c r="AC84" s="81"/>
-      <c r="AD84" s="81"/>
-      <c r="AE84" s="81"/>
-    </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W84" s="83"/>
+      <c r="X84" s="81"/>
+      <c r="Y84" s="81"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="86"/>
       <c r="C85" s="81"/>
       <c r="D85" s="81"/>
       <c r="E85" s="81"/>
-      <c r="F85" s="128"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="130"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="82"/>
+      <c r="H85" s="82"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="108"/>
       <c r="K85" s="81"/>
       <c r="M85" s="83"/>
       <c r="N85" s="81"/>
       <c r="O85" s="81"/>
       <c r="P85" s="81"/>
-      <c r="R85" s="83"/>
-      <c r="S85" s="81"/>
-      <c r="T85" s="81"/>
-      <c r="U85" s="81"/>
-      <c r="AB85" s="83"/>
-      <c r="AC85" s="81"/>
-      <c r="AD85" s="81"/>
-      <c r="AE85" s="81"/>
-    </row>
-    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W85" s="83"/>
+      <c r="X85" s="81"/>
+      <c r="Y85" s="81"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="86"/>
       <c r="C86" s="81"/>
       <c r="D86" s="81"/>
       <c r="E86" s="81"/>
-      <c r="F86" s="128"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
-      <c r="I86" s="128"/>
-      <c r="J86" s="130"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="108"/>
       <c r="K86" s="81"/>
       <c r="M86" s="83"/>
       <c r="N86" s="81"/>
       <c r="O86" s="81"/>
       <c r="P86" s="81"/>
-      <c r="R86" s="83"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
-      <c r="U86" s="81"/>
-      <c r="AB86" s="83"/>
-      <c r="AC86" s="81"/>
-      <c r="AD86" s="81"/>
-      <c r="AE86" s="81"/>
-    </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W86" s="83"/>
+      <c r="X86" s="81"/>
+      <c r="Y86" s="81"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="86"/>
       <c r="C87" s="81"/>
       <c r="D87" s="81"/>
       <c r="E87" s="81"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="129"/>
-      <c r="H87" s="129"/>
-      <c r="I87" s="128"/>
-      <c r="J87" s="130"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="108"/>
       <c r="K87" s="81"/>
       <c r="M87" s="83"/>
       <c r="N87" s="81"/>
       <c r="O87" s="81"/>
       <c r="P87" s="81"/>
-      <c r="R87" s="83"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
-      <c r="U87" s="81"/>
-      <c r="AB87" s="83"/>
-      <c r="AC87" s="81"/>
-      <c r="AD87" s="81"/>
-      <c r="AE87" s="81"/>
-    </row>
-    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W87" s="83"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="81"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="86"/>
       <c r="C88" s="81"/>
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="130"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="108"/>
       <c r="K88" s="81"/>
       <c r="M88" s="83"/>
       <c r="N88" s="81"/>
       <c r="O88" s="81"/>
       <c r="P88" s="81"/>
-      <c r="R88" s="83"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
-      <c r="U88" s="81"/>
-      <c r="AB88" s="83"/>
-      <c r="AC88" s="81"/>
-      <c r="AD88" s="81"/>
-      <c r="AE88" s="81"/>
-    </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W88" s="83"/>
+      <c r="X88" s="81"/>
+      <c r="Y88" s="81"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="86"/>
       <c r="C89" s="81"/>
       <c r="D89" s="81"/>
       <c r="E89" s="81"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="130"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="108"/>
       <c r="K89" s="81"/>
       <c r="M89" s="83"/>
       <c r="N89" s="81"/>
       <c r="O89" s="81"/>
       <c r="P89" s="81"/>
-      <c r="R89" s="83"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
-      <c r="U89" s="81"/>
-      <c r="AB89" s="83"/>
-      <c r="AC89" s="81"/>
-      <c r="AD89" s="81"/>
-      <c r="AE89" s="81"/>
-    </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W89" s="83"/>
+      <c r="X89" s="81"/>
+      <c r="Y89" s="81"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="86"/>
       <c r="C90" s="81"/>
       <c r="D90" s="81"/>
       <c r="E90" s="81"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="129"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="128"/>
-      <c r="J90" s="130"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="82"/>
+      <c r="H90" s="82"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="108"/>
       <c r="K90" s="81"/>
       <c r="M90" s="83"/>
       <c r="N90" s="81"/>
       <c r="O90" s="81"/>
       <c r="P90" s="81"/>
-      <c r="R90" s="83"/>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
-      <c r="U90" s="81"/>
-      <c r="AB90" s="83"/>
-      <c r="AC90" s="81"/>
-      <c r="AD90" s="81"/>
-      <c r="AE90" s="81"/>
-    </row>
-    <row r="91" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W90" s="83"/>
+      <c r="X90" s="81"/>
+      <c r="Y90" s="81"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="86"/>
       <c r="C91" s="81"/>
       <c r="D91" s="81"/>
       <c r="E91" s="81"/>
-      <c r="F91" s="128"/>
-      <c r="G91" s="129"/>
-      <c r="H91" s="129"/>
-      <c r="I91" s="128"/>
-      <c r="J91" s="130"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="108"/>
       <c r="K91" s="81"/>
       <c r="M91" s="83"/>
       <c r="N91" s="81"/>
       <c r="O91" s="81"/>
       <c r="P91" s="81"/>
-      <c r="R91" s="83"/>
-      <c r="S91" s="81"/>
-      <c r="T91" s="81"/>
-      <c r="U91" s="81"/>
-      <c r="AB91" s="83"/>
-      <c r="AC91" s="81"/>
-      <c r="AD91" s="81"/>
-      <c r="AE91" s="81"/>
-    </row>
-    <row r="92" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W91" s="83"/>
+      <c r="X91" s="81"/>
+      <c r="Y91" s="81"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="86"/>
       <c r="C92" s="81"/>
       <c r="D92" s="81"/>
       <c r="E92" s="81"/>
-      <c r="F92" s="128"/>
-      <c r="G92" s="129"/>
-      <c r="H92" s="129"/>
-      <c r="I92" s="128"/>
-      <c r="J92" s="130"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="108"/>
       <c r="K92" s="81"/>
       <c r="M92" s="83"/>
       <c r="N92" s="81"/>
       <c r="O92" s="81"/>
       <c r="P92" s="81"/>
-      <c r="R92" s="83"/>
-      <c r="S92" s="81"/>
-      <c r="T92" s="81"/>
-      <c r="U92" s="81"/>
-      <c r="AB92" s="83"/>
-      <c r="AC92" s="81"/>
-      <c r="AD92" s="81"/>
-      <c r="AE92" s="81"/>
-    </row>
-    <row r="93" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W92" s="83"/>
+      <c r="X92" s="81"/>
+      <c r="Y92" s="81"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="86"/>
       <c r="C93" s="81"/>
       <c r="D93" s="81"/>
       <c r="E93" s="81"/>
-      <c r="F93" s="128"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="128"/>
-      <c r="J93" s="130"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="82"/>
+      <c r="H93" s="82"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="108"/>
       <c r="K93" s="81"/>
       <c r="M93" s="83"/>
       <c r="N93" s="81"/>
       <c r="O93" s="81"/>
       <c r="P93" s="81"/>
-      <c r="R93" s="83"/>
-      <c r="S93" s="81"/>
-      <c r="T93" s="81"/>
-      <c r="U93" s="81"/>
-      <c r="AB93" s="83"/>
-      <c r="AC93" s="81"/>
-      <c r="AD93" s="81"/>
-      <c r="AE93" s="81"/>
-    </row>
-    <row r="94" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W93" s="83"/>
+      <c r="X93" s="81"/>
+      <c r="Y93" s="81"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="86"/>
       <c r="C94" s="81"/>
       <c r="D94" s="81"/>
       <c r="E94" s="81"/>
-      <c r="F94" s="128"/>
-      <c r="G94" s="129"/>
-      <c r="H94" s="129"/>
-      <c r="I94" s="128"/>
-      <c r="J94" s="130"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="108"/>
       <c r="K94" s="81"/>
       <c r="M94" s="83"/>
       <c r="N94" s="81"/>
       <c r="O94" s="81"/>
       <c r="P94" s="81"/>
-      <c r="R94" s="83"/>
-      <c r="S94" s="81"/>
-      <c r="T94" s="81"/>
-      <c r="U94" s="81"/>
-      <c r="AB94" s="83"/>
-      <c r="AC94" s="81"/>
-      <c r="AD94" s="81"/>
-      <c r="AE94" s="81"/>
-    </row>
-    <row r="95" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W94" s="83"/>
+      <c r="X94" s="81"/>
+      <c r="Y94" s="81"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="86"/>
       <c r="C95" s="81"/>
       <c r="D95" s="81"/>
       <c r="E95" s="81"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="129"/>
-      <c r="I95" s="128"/>
-      <c r="J95" s="130"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="108"/>
       <c r="K95" s="81"/>
       <c r="M95" s="83"/>
       <c r="N95" s="81"/>
       <c r="O95" s="81"/>
       <c r="P95" s="81"/>
-      <c r="R95" s="83"/>
-      <c r="S95" s="81"/>
-      <c r="T95" s="81"/>
-      <c r="U95" s="81"/>
-      <c r="AB95" s="83"/>
-      <c r="AC95" s="81"/>
-      <c r="AD95" s="81"/>
-      <c r="AE95" s="81"/>
-    </row>
-    <row r="96" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W95" s="83"/>
+      <c r="X95" s="81"/>
+      <c r="Y95" s="81"/>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="86"/>
       <c r="C96" s="81"/>
       <c r="D96" s="81"/>
       <c r="E96" s="81"/>
-      <c r="F96" s="128"/>
-      <c r="G96" s="129"/>
-      <c r="H96" s="129"/>
-      <c r="I96" s="128"/>
-      <c r="J96" s="130"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="108"/>
       <c r="K96" s="81"/>
       <c r="M96" s="83"/>
       <c r="N96" s="81"/>
       <c r="O96" s="81"/>
       <c r="P96" s="81"/>
-      <c r="R96" s="83"/>
-      <c r="S96" s="81"/>
-      <c r="T96" s="81"/>
-      <c r="U96" s="81"/>
-      <c r="AB96" s="83"/>
-      <c r="AC96" s="81"/>
-      <c r="AD96" s="81"/>
-      <c r="AE96" s="81"/>
-    </row>
-    <row r="97" spans="2:31" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W96" s="83"/>
+      <c r="X96" s="81"/>
+      <c r="Y96" s="81"/>
+    </row>
+    <row r="97" spans="2:25" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="86"/>
       <c r="C97" s="81"/>
       <c r="D97" s="81"/>
       <c r="E97" s="81"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="129"/>
-      <c r="H97" s="129"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="130"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="82"/>
+      <c r="H97" s="82"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="108"/>
       <c r="K97" s="81"/>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
       <c r="O97" s="81"/>
       <c r="P97" s="81"/>
-      <c r="R97" s="83"/>
-      <c r="S97" s="81"/>
-      <c r="T97" s="81"/>
-      <c r="U97" s="81"/>
-      <c r="AB97" s="83"/>
-      <c r="AC97" s="81"/>
-      <c r="AD97" s="81"/>
-      <c r="AE97" s="81"/>
-    </row>
-    <row r="98" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W97" s="83"/>
+      <c r="X97" s="81"/>
+      <c r="Y97" s="81"/>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="86"/>
       <c r="C98" s="81"/>
       <c r="D98" s="81"/>
       <c r="E98" s="81"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="129"/>
-      <c r="H98" s="129"/>
-      <c r="I98" s="128"/>
-      <c r="J98" s="130"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="82"/>
+      <c r="H98" s="82"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="108"/>
       <c r="K98" s="81"/>
       <c r="M98" s="83"/>
       <c r="N98" s="81"/>
       <c r="O98" s="81"/>
       <c r="P98" s="81"/>
-      <c r="R98" s="83"/>
-      <c r="S98" s="81"/>
-      <c r="T98" s="81"/>
-      <c r="U98" s="81"/>
-      <c r="AB98" s="83"/>
-      <c r="AC98" s="81"/>
-      <c r="AD98" s="81"/>
-      <c r="AE98" s="81"/>
-    </row>
-    <row r="99" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W98" s="83"/>
+      <c r="X98" s="81"/>
+      <c r="Y98" s="81"/>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="86"/>
       <c r="C99" s="81"/>
       <c r="D99" s="81"/>
       <c r="E99" s="81"/>
-      <c r="F99" s="128"/>
-      <c r="G99" s="129"/>
-      <c r="H99" s="129"/>
-      <c r="I99" s="128"/>
-      <c r="J99" s="130"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="82"/>
+      <c r="H99" s="82"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="108"/>
       <c r="K99" s="81"/>
       <c r="M99" s="83"/>
       <c r="N99" s="81"/>
       <c r="O99" s="81"/>
       <c r="P99" s="81"/>
-      <c r="R99" s="83"/>
-      <c r="S99" s="81"/>
-      <c r="T99" s="81"/>
-      <c r="U99" s="81"/>
-      <c r="AB99" s="83"/>
-      <c r="AC99" s="81"/>
-      <c r="AD99" s="81"/>
-      <c r="AE99" s="81"/>
-    </row>
-    <row r="100" spans="2:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W99" s="83"/>
+      <c r="X99" s="81"/>
+      <c r="Y99" s="81"/>
+    </row>
+    <row r="100" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="86"/>
       <c r="C100" s="81"/>
       <c r="D100" s="81"/>
       <c r="E100" s="81"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="129"/>
-      <c r="H100" s="129"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="130"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="108"/>
       <c r="K100" s="81"/>
       <c r="M100" s="83"/>
       <c r="N100" s="81"/>
       <c r="O100" s="81"/>
       <c r="P100" s="81"/>
-      <c r="R100" s="83"/>
-      <c r="S100" s="81"/>
-      <c r="T100" s="81"/>
-      <c r="U100" s="81"/>
-      <c r="AB100" s="83"/>
-      <c r="AC100" s="81"/>
-      <c r="AD100" s="81"/>
-      <c r="AE100" s="81"/>
-    </row>
-    <row r="101" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W100" s="83"/>
+      <c r="X100" s="81"/>
+      <c r="Y100" s="81"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="86"/>
       <c r="C101" s="81"/>
       <c r="D101" s="81"/>
       <c r="E101" s="81"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="129"/>
-      <c r="H101" s="129"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="130"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="108"/>
       <c r="K101" s="81"/>
       <c r="M101" s="83"/>
       <c r="N101" s="81"/>
       <c r="O101" s="81"/>
       <c r="P101" s="81"/>
-      <c r="R101" s="83"/>
-      <c r="S101" s="81"/>
-      <c r="T101" s="81"/>
-      <c r="U101" s="81"/>
-      <c r="AB101" s="83"/>
-      <c r="AC101" s="81"/>
-      <c r="AD101" s="81"/>
-      <c r="AE101" s="81"/>
-    </row>
-    <row r="102" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W101" s="83"/>
+      <c r="X101" s="81"/>
+      <c r="Y101" s="81"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="86"/>
       <c r="C102" s="81"/>
       <c r="D102" s="81"/>
       <c r="E102" s="81"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="129"/>
-      <c r="H102" s="129"/>
-      <c r="I102" s="128"/>
-      <c r="J102" s="130"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="108"/>
       <c r="K102" s="81"/>
       <c r="M102" s="83"/>
       <c r="N102" s="81"/>
       <c r="O102" s="81"/>
       <c r="P102" s="81"/>
-      <c r="R102" s="83"/>
-      <c r="S102" s="81"/>
-      <c r="T102" s="81"/>
-      <c r="U102" s="81"/>
-      <c r="AB102" s="83"/>
-      <c r="AC102" s="81"/>
-      <c r="AD102" s="81"/>
-      <c r="AE102" s="81"/>
-    </row>
-    <row r="103" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W102" s="83"/>
+      <c r="X102" s="81"/>
+      <c r="Y102" s="81"/>
+    </row>
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="86"/>
       <c r="C103" s="81"/>
       <c r="D103" s="81"/>
       <c r="E103" s="81"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="129"/>
-      <c r="H103" s="129"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="130"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="108"/>
       <c r="K103" s="81"/>
       <c r="M103" s="83"/>
       <c r="N103" s="81"/>
       <c r="O103" s="81"/>
       <c r="P103" s="81"/>
-      <c r="R103" s="83"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="81"/>
-      <c r="AB103" s="83"/>
-      <c r="AC103" s="81"/>
-      <c r="AD103" s="81"/>
-      <c r="AE103" s="81"/>
-    </row>
-    <row r="104" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W103" s="83"/>
+      <c r="X103" s="81"/>
+      <c r="Y103" s="81"/>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="86"/>
       <c r="C104" s="81"/>
       <c r="D104" s="81"/>
       <c r="E104" s="81"/>
-      <c r="F104" s="128"/>
-      <c r="G104" s="129"/>
-      <c r="H104" s="129"/>
-      <c r="I104" s="128"/>
-      <c r="J104" s="130"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="82"/>
+      <c r="H104" s="82"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="108"/>
       <c r="K104" s="81"/>
       <c r="M104" s="83"/>
       <c r="N104" s="81"/>
       <c r="O104" s="81"/>
       <c r="P104" s="81"/>
-      <c r="R104" s="83"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="81"/>
-      <c r="AB104" s="83"/>
-      <c r="AC104" s="81"/>
-      <c r="AD104" s="81"/>
-      <c r="AE104" s="81"/>
-    </row>
-    <row r="105" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W104" s="83"/>
+      <c r="X104" s="81"/>
+      <c r="Y104" s="81"/>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="86"/>
       <c r="C105" s="81"/>
       <c r="D105" s="81"/>
       <c r="E105" s="81"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="129"/>
-      <c r="H105" s="129"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="130"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="108"/>
       <c r="K105" s="81"/>
     </row>
-    <row r="106" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="86"/>
       <c r="C106" s="81"/>
       <c r="D106" s="81"/>
       <c r="E106" s="81"/>
-      <c r="F106" s="128"/>
-      <c r="G106" s="129"/>
-      <c r="H106" s="129"/>
-      <c r="I106" s="128"/>
-      <c r="J106" s="130"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="82"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="108"/>
       <c r="K106" s="81"/>
     </row>
-    <row r="107" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="86"/>
       <c r="C107" s="81"/>
       <c r="D107" s="81"/>
       <c r="E107" s="81"/>
-      <c r="F107" s="128"/>
-      <c r="G107" s="129"/>
-      <c r="H107" s="129"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="130"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="108"/>
       <c r="K107" s="81"/>
     </row>
-    <row r="108" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="86"/>
       <c r="C108" s="81"/>
       <c r="D108" s="81"/>
       <c r="E108" s="81"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="129"/>
-      <c r="H108" s="129"/>
-      <c r="I108" s="128"/>
-      <c r="J108" s="130"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="82"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="108"/>
       <c r="K108" s="81"/>
     </row>
-    <row r="109" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="86"/>
       <c r="C109" s="81"/>
       <c r="D109" s="81"/>
       <c r="E109" s="81"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="129"/>
-      <c r="H109" s="129"/>
-      <c r="I109" s="128"/>
-      <c r="J109" s="130"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="82"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="108"/>
       <c r="K109" s="81"/>
     </row>
-    <row r="110" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="86"/>
       <c r="C110" s="81"/>
       <c r="D110" s="81"/>
       <c r="E110" s="81"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="129"/>
-      <c r="H110" s="129"/>
-      <c r="I110" s="128"/>
-      <c r="J110" s="130"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="82"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="108"/>
       <c r="K110" s="81"/>
     </row>
-    <row r="111" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="86"/>
       <c r="C111" s="81"/>
       <c r="D111" s="81"/>
       <c r="E111" s="81"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="129"/>
-      <c r="H111" s="129"/>
-      <c r="I111" s="128"/>
-      <c r="J111" s="130"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="108"/>
       <c r="K111" s="81"/>
     </row>
-    <row r="112" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="86"/>
       <c r="C112" s="81"/>
       <c r="D112" s="81"/>
       <c r="E112" s="81"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="129"/>
-      <c r="H112" s="129"/>
-      <c r="I112" s="128"/>
-      <c r="J112" s="130"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="82"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="108"/>
       <c r="K112" s="81"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
@@ -13106,11 +12468,11 @@
       <c r="C113" s="81"/>
       <c r="D113" s="81"/>
       <c r="E113" s="81"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="129"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="128"/>
-      <c r="J113" s="130"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="82"/>
+      <c r="H113" s="82"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="108"/>
       <c r="K113" s="81"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -13118,11 +12480,11 @@
       <c r="C114" s="81"/>
       <c r="D114" s="81"/>
       <c r="E114" s="81"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="129"/>
-      <c r="H114" s="129"/>
-      <c r="I114" s="128"/>
-      <c r="J114" s="130"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="82"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="108"/>
       <c r="K114" s="81"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -13130,11 +12492,11 @@
       <c r="C115" s="81"/>
       <c r="D115" s="81"/>
       <c r="E115" s="81"/>
-      <c r="F115" s="128"/>
-      <c r="G115" s="129"/>
-      <c r="H115" s="129"/>
-      <c r="I115" s="128"/>
-      <c r="J115" s="130"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="82"/>
+      <c r="H115" s="82"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="108"/>
       <c r="K115" s="81"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
@@ -13142,11 +12504,11 @@
       <c r="C116" s="81"/>
       <c r="D116" s="81"/>
       <c r="E116" s="81"/>
-      <c r="F116" s="128"/>
-      <c r="G116" s="129"/>
-      <c r="H116" s="129"/>
-      <c r="I116" s="128"/>
-      <c r="J116" s="130"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="82"/>
+      <c r="H116" s="82"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="108"/>
       <c r="K116" s="81"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
@@ -13154,11 +12516,11 @@
       <c r="C117" s="81"/>
       <c r="D117" s="81"/>
       <c r="E117" s="81"/>
-      <c r="F117" s="128"/>
-      <c r="G117" s="129"/>
-      <c r="H117" s="129"/>
-      <c r="I117" s="128"/>
-      <c r="J117" s="130"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="82"/>
+      <c r="H117" s="82"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="108"/>
       <c r="K117" s="81"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
@@ -13166,11 +12528,11 @@
       <c r="C118" s="81"/>
       <c r="D118" s="81"/>
       <c r="E118" s="81"/>
-      <c r="F118" s="128"/>
-      <c r="G118" s="129"/>
-      <c r="H118" s="129"/>
-      <c r="I118" s="128"/>
-      <c r="J118" s="130"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="82"/>
+      <c r="H118" s="82"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="108"/>
       <c r="K118" s="81"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
@@ -13178,11 +12540,11 @@
       <c r="C119" s="81"/>
       <c r="D119" s="81"/>
       <c r="E119" s="81"/>
-      <c r="F119" s="128"/>
-      <c r="G119" s="129"/>
-      <c r="H119" s="129"/>
-      <c r="I119" s="128"/>
-      <c r="J119" s="130"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="82"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="108"/>
       <c r="K119" s="81"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
@@ -13190,11 +12552,11 @@
       <c r="C120" s="81"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81"/>
-      <c r="F120" s="128"/>
-      <c r="G120" s="129"/>
-      <c r="H120" s="129"/>
-      <c r="I120" s="128"/>
-      <c r="J120" s="130"/>
+      <c r="F120" s="81"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="82"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="108"/>
       <c r="K120" s="81"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
@@ -13202,11 +12564,11 @@
       <c r="C121" s="81"/>
       <c r="D121" s="81"/>
       <c r="E121" s="81"/>
-      <c r="F121" s="128"/>
-      <c r="G121" s="129"/>
-      <c r="H121" s="129"/>
-      <c r="I121" s="128"/>
-      <c r="J121" s="130"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="82"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="108"/>
       <c r="K121" s="81"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
@@ -13214,11 +12576,11 @@
       <c r="C122" s="81"/>
       <c r="D122" s="81"/>
       <c r="E122" s="81"/>
-      <c r="F122" s="128"/>
-      <c r="G122" s="129"/>
-      <c r="H122" s="129"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="130"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="82"/>
+      <c r="H122" s="82"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="108"/>
       <c r="K122" s="81"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
@@ -13226,11 +12588,11 @@
       <c r="C123" s="81"/>
       <c r="D123" s="81"/>
       <c r="E123" s="81"/>
-      <c r="F123" s="128"/>
-      <c r="G123" s="129"/>
-      <c r="H123" s="129"/>
-      <c r="I123" s="128"/>
-      <c r="J123" s="130"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="82"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="108"/>
       <c r="K123" s="81"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
@@ -13238,11 +12600,11 @@
       <c r="C124" s="81"/>
       <c r="D124" s="81"/>
       <c r="E124" s="81"/>
-      <c r="F124" s="128"/>
-      <c r="G124" s="129"/>
-      <c r="H124" s="129"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="130"/>
+      <c r="F124" s="81"/>
+      <c r="G124" s="82"/>
+      <c r="H124" s="82"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="108"/>
       <c r="K124" s="81"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
@@ -13250,11 +12612,11 @@
       <c r="C125" s="81"/>
       <c r="D125" s="81"/>
       <c r="E125" s="81"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="129"/>
-      <c r="H125" s="129"/>
-      <c r="I125" s="128"/>
-      <c r="J125" s="130"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="82"/>
+      <c r="H125" s="82"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="108"/>
       <c r="K125" s="81"/>
     </row>
     <row r="126" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -13262,11 +12624,11 @@
       <c r="C126" s="81"/>
       <c r="D126" s="81"/>
       <c r="E126" s="81"/>
-      <c r="F126" s="128"/>
-      <c r="G126" s="129"/>
-      <c r="H126" s="129"/>
-      <c r="I126" s="128"/>
-      <c r="J126" s="130"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="82"/>
+      <c r="H126" s="82"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="108"/>
       <c r="K126" s="81"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
@@ -13274,11 +12636,11 @@
       <c r="C127" s="81"/>
       <c r="D127" s="81"/>
       <c r="E127" s="81"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="129"/>
-      <c r="H127" s="129"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="130"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="82"/>
+      <c r="H127" s="82"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="108"/>
       <c r="K127" s="81"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
@@ -13286,11 +12648,11 @@
       <c r="C128" s="81"/>
       <c r="D128" s="81"/>
       <c r="E128" s="81"/>
-      <c r="F128" s="128"/>
-      <c r="G128" s="129"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="130"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="82"/>
+      <c r="H128" s="82"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="108"/>
       <c r="K128" s="81"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
@@ -13298,11 +12660,11 @@
       <c r="C129" s="81"/>
       <c r="D129" s="81"/>
       <c r="E129" s="81"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="129"/>
-      <c r="H129" s="129"/>
-      <c r="I129" s="128"/>
-      <c r="J129" s="130"/>
+      <c r="F129" s="81"/>
+      <c r="G129" s="82"/>
+      <c r="H129" s="82"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="108"/>
       <c r="K129" s="81"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
@@ -13310,11 +12672,11 @@
       <c r="C130" s="81"/>
       <c r="D130" s="81"/>
       <c r="E130" s="81"/>
-      <c r="F130" s="128"/>
-      <c r="G130" s="129"/>
-      <c r="H130" s="129"/>
-      <c r="I130" s="128"/>
-      <c r="J130" s="130"/>
+      <c r="F130" s="81"/>
+      <c r="G130" s="82"/>
+      <c r="H130" s="82"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="108"/>
       <c r="K130" s="81"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
@@ -13322,11 +12684,11 @@
       <c r="C131" s="81"/>
       <c r="D131" s="81"/>
       <c r="E131" s="81"/>
-      <c r="F131" s="128"/>
-      <c r="G131" s="129"/>
-      <c r="H131" s="129"/>
-      <c r="I131" s="128"/>
-      <c r="J131" s="130"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="82"/>
+      <c r="H131" s="82"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="108"/>
       <c r="K131" s="81"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
@@ -13334,11 +12696,11 @@
       <c r="C132" s="81"/>
       <c r="D132" s="81"/>
       <c r="E132" s="81"/>
-      <c r="F132" s="128"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="129"/>
-      <c r="I132" s="128"/>
-      <c r="J132" s="130"/>
+      <c r="F132" s="81"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="82"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="108"/>
       <c r="K132" s="81"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
@@ -13346,11 +12708,11 @@
       <c r="C133" s="81"/>
       <c r="D133" s="81"/>
       <c r="E133" s="81"/>
-      <c r="F133" s="128"/>
-      <c r="G133" s="129"/>
-      <c r="H133" s="129"/>
-      <c r="I133" s="128"/>
-      <c r="J133" s="130"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="82"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="108"/>
       <c r="K133" s="81"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
@@ -13358,11 +12720,11 @@
       <c r="C134" s="81"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
-      <c r="F134" s="128"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="129"/>
-      <c r="I134" s="128"/>
-      <c r="J134" s="130"/>
+      <c r="F134" s="81"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="82"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="108"/>
       <c r="K134" s="81"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
@@ -13370,11 +12732,11 @@
       <c r="C135" s="81"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
-      <c r="F135" s="128"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="128"/>
-      <c r="J135" s="130"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="82"/>
+      <c r="H135" s="82"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="108"/>
       <c r="K135" s="81"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
@@ -13382,11 +12744,11 @@
       <c r="C136" s="81"/>
       <c r="D136" s="81"/>
       <c r="E136" s="81"/>
-      <c r="F136" s="128"/>
-      <c r="G136" s="129"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="128"/>
-      <c r="J136" s="130"/>
+      <c r="F136" s="81"/>
+      <c r="G136" s="82"/>
+      <c r="H136" s="82"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="108"/>
       <c r="K136" s="81"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
@@ -13394,11 +12756,11 @@
       <c r="C137" s="81"/>
       <c r="D137" s="81"/>
       <c r="E137" s="81"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="129"/>
-      <c r="H137" s="129"/>
-      <c r="I137" s="128"/>
-      <c r="J137" s="130"/>
+      <c r="F137" s="81"/>
+      <c r="G137" s="82"/>
+      <c r="H137" s="82"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="108"/>
       <c r="K137" s="81"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
@@ -13406,11 +12768,11 @@
       <c r="C138" s="81"/>
       <c r="D138" s="81"/>
       <c r="E138" s="81"/>
-      <c r="F138" s="128"/>
-      <c r="G138" s="129"/>
-      <c r="H138" s="129"/>
-      <c r="I138" s="128"/>
-      <c r="J138" s="130"/>
+      <c r="F138" s="81"/>
+      <c r="G138" s="82"/>
+      <c r="H138" s="82"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="108"/>
       <c r="K138" s="81"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
@@ -13418,11 +12780,11 @@
       <c r="C139" s="81"/>
       <c r="D139" s="81"/>
       <c r="E139" s="81"/>
-      <c r="F139" s="128"/>
-      <c r="G139" s="129"/>
-      <c r="H139" s="129"/>
-      <c r="I139" s="128"/>
-      <c r="J139" s="130"/>
+      <c r="F139" s="81"/>
+      <c r="G139" s="82"/>
+      <c r="H139" s="82"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="108"/>
       <c r="K139" s="81"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
@@ -13430,11 +12792,11 @@
       <c r="C140" s="81"/>
       <c r="D140" s="81"/>
       <c r="E140" s="81"/>
-      <c r="F140" s="128"/>
-      <c r="G140" s="129"/>
-      <c r="H140" s="129"/>
-      <c r="I140" s="128"/>
-      <c r="J140" s="130"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="108"/>
       <c r="K140" s="81"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
@@ -13442,11 +12804,11 @@
       <c r="C141" s="81"/>
       <c r="D141" s="81"/>
       <c r="E141" s="81"/>
-      <c r="F141" s="128"/>
-      <c r="G141" s="129"/>
-      <c r="H141" s="129"/>
-      <c r="I141" s="128"/>
-      <c r="J141" s="130"/>
+      <c r="F141" s="81"/>
+      <c r="G141" s="82"/>
+      <c r="H141" s="82"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="108"/>
       <c r="K141" s="81"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
@@ -13454,11 +12816,11 @@
       <c r="C142" s="81"/>
       <c r="D142" s="81"/>
       <c r="E142" s="81"/>
-      <c r="F142" s="128"/>
-      <c r="G142" s="129"/>
-      <c r="H142" s="129"/>
-      <c r="I142" s="128"/>
-      <c r="J142" s="130"/>
+      <c r="F142" s="81"/>
+      <c r="G142" s="82"/>
+      <c r="H142" s="82"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="108"/>
       <c r="K142" s="81"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
@@ -13466,11 +12828,11 @@
       <c r="C143" s="81"/>
       <c r="D143" s="81"/>
       <c r="E143" s="81"/>
-      <c r="F143" s="128"/>
-      <c r="G143" s="129"/>
-      <c r="H143" s="129"/>
-      <c r="I143" s="128"/>
-      <c r="J143" s="130"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="82"/>
+      <c r="H143" s="82"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="108"/>
       <c r="K143" s="81"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
@@ -13478,11 +12840,11 @@
       <c r="C144" s="81"/>
       <c r="D144" s="81"/>
       <c r="E144" s="81"/>
-      <c r="F144" s="128"/>
-      <c r="G144" s="129"/>
-      <c r="H144" s="129"/>
-      <c r="I144" s="128"/>
-      <c r="J144" s="130"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="82"/>
+      <c r="H144" s="82"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="108"/>
       <c r="K144" s="81"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
@@ -13490,11 +12852,11 @@
       <c r="C145" s="81"/>
       <c r="D145" s="81"/>
       <c r="E145" s="81"/>
-      <c r="F145" s="128"/>
-      <c r="G145" s="129"/>
-      <c r="H145" s="129"/>
-      <c r="I145" s="128"/>
-      <c r="J145" s="130"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="108"/>
       <c r="K145" s="81"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
@@ -13502,11 +12864,11 @@
       <c r="C146" s="81"/>
       <c r="D146" s="81"/>
       <c r="E146" s="81"/>
-      <c r="F146" s="128"/>
-      <c r="G146" s="129"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="128"/>
-      <c r="J146" s="130"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="82"/>
+      <c r="H146" s="82"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="108"/>
       <c r="K146" s="81"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
@@ -13514,11 +12876,11 @@
       <c r="C147" s="81"/>
       <c r="D147" s="81"/>
       <c r="E147" s="81"/>
-      <c r="F147" s="128"/>
-      <c r="G147" s="129"/>
-      <c r="H147" s="129"/>
-      <c r="I147" s="128"/>
-      <c r="J147" s="130"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="82"/>
+      <c r="H147" s="82"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="108"/>
       <c r="K147" s="81"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
@@ -13526,11 +12888,11 @@
       <c r="C148" s="81"/>
       <c r="D148" s="81"/>
       <c r="E148" s="81"/>
-      <c r="F148" s="128"/>
-      <c r="G148" s="129"/>
-      <c r="H148" s="129"/>
-      <c r="I148" s="128"/>
-      <c r="J148" s="130"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="82"/>
+      <c r="H148" s="82"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="108"/>
       <c r="K148" s="81"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
@@ -13542,7 +12904,7 @@
       <c r="G149" s="82"/>
       <c r="H149" s="82"/>
       <c r="I149" s="81"/>
-      <c r="J149" s="109"/>
+      <c r="J149" s="108"/>
       <c r="K149" s="81"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
@@ -13554,7 +12916,7 @@
       <c r="G150" s="82"/>
       <c r="H150" s="82"/>
       <c r="I150" s="81"/>
-      <c r="J150" s="109"/>
+      <c r="J150" s="108"/>
       <c r="K150" s="81"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
@@ -13566,7 +12928,7 @@
       <c r="G151" s="82"/>
       <c r="H151" s="82"/>
       <c r="I151" s="81"/>
-      <c r="J151" s="109"/>
+      <c r="J151" s="108"/>
       <c r="K151" s="81"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
@@ -13578,7 +12940,7 @@
       <c r="G152" s="82"/>
       <c r="H152" s="82"/>
       <c r="I152" s="81"/>
-      <c r="J152" s="109"/>
+      <c r="J152" s="108"/>
       <c r="K152" s="81"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
@@ -13590,7 +12952,7 @@
       <c r="G153" s="82"/>
       <c r="H153" s="82"/>
       <c r="I153" s="81"/>
-      <c r="J153" s="109"/>
+      <c r="J153" s="108"/>
       <c r="K153" s="81"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
@@ -13602,7 +12964,7 @@
       <c r="G154" s="82"/>
       <c r="H154" s="82"/>
       <c r="I154" s="81"/>
-      <c r="J154" s="109"/>
+      <c r="J154" s="108"/>
       <c r="K154" s="81"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
@@ -13614,7 +12976,7 @@
       <c r="G155" s="82"/>
       <c r="H155" s="82"/>
       <c r="I155" s="81"/>
-      <c r="J155" s="109"/>
+      <c r="J155" s="108"/>
       <c r="K155" s="81"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
@@ -13626,7 +12988,7 @@
       <c r="G156" s="82"/>
       <c r="H156" s="82"/>
       <c r="I156" s="81"/>
-      <c r="J156" s="109"/>
+      <c r="J156" s="108"/>
       <c r="K156" s="81"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
@@ -13638,7 +13000,7 @@
       <c r="G157" s="82"/>
       <c r="H157" s="82"/>
       <c r="I157" s="81"/>
-      <c r="J157" s="109"/>
+      <c r="J157" s="108"/>
       <c r="K157" s="81"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
@@ -13650,7 +13012,7 @@
       <c r="G158" s="82"/>
       <c r="H158" s="82"/>
       <c r="I158" s="81"/>
-      <c r="J158" s="109"/>
+      <c r="J158" s="108"/>
       <c r="K158" s="81"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
@@ -13662,7 +13024,7 @@
       <c r="G159" s="82"/>
       <c r="H159" s="82"/>
       <c r="I159" s="81"/>
-      <c r="J159" s="109"/>
+      <c r="J159" s="108"/>
       <c r="K159" s="81"/>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
@@ -13674,7 +13036,7 @@
       <c r="G160" s="82"/>
       <c r="H160" s="82"/>
       <c r="I160" s="81"/>
-      <c r="J160" s="109"/>
+      <c r="J160" s="108"/>
       <c r="K160" s="81"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
@@ -13686,7 +13048,7 @@
       <c r="G161" s="82"/>
       <c r="H161" s="82"/>
       <c r="I161" s="81"/>
-      <c r="J161" s="109"/>
+      <c r="J161" s="108"/>
       <c r="K161" s="81"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
@@ -13698,7 +13060,7 @@
       <c r="G162" s="82"/>
       <c r="H162" s="82"/>
       <c r="I162" s="81"/>
-      <c r="J162" s="109"/>
+      <c r="J162" s="108"/>
       <c r="K162" s="81"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
@@ -13710,7 +13072,7 @@
       <c r="G163" s="82"/>
       <c r="H163" s="82"/>
       <c r="I163" s="81"/>
-      <c r="J163" s="109"/>
+      <c r="J163" s="108"/>
       <c r="K163" s="81"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
@@ -13722,7 +13084,7 @@
       <c r="G164" s="82"/>
       <c r="H164" s="82"/>
       <c r="I164" s="81"/>
-      <c r="J164" s="109"/>
+      <c r="J164" s="108"/>
       <c r="K164" s="81"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
@@ -13734,7 +13096,7 @@
       <c r="G165" s="82"/>
       <c r="H165" s="82"/>
       <c r="I165" s="81"/>
-      <c r="J165" s="109"/>
+      <c r="J165" s="108"/>
       <c r="K165" s="81"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
@@ -13746,7 +13108,7 @@
       <c r="G166" s="82"/>
       <c r="H166" s="82"/>
       <c r="I166" s="81"/>
-      <c r="J166" s="109"/>
+      <c r="J166" s="108"/>
       <c r="K166" s="81"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
@@ -13758,7 +13120,7 @@
       <c r="G167" s="82"/>
       <c r="H167" s="82"/>
       <c r="I167" s="81"/>
-      <c r="J167" s="109"/>
+      <c r="J167" s="108"/>
       <c r="K167" s="81"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
@@ -13770,7 +13132,7 @@
       <c r="G168" s="82"/>
       <c r="H168" s="82"/>
       <c r="I168" s="81"/>
-      <c r="J168" s="109"/>
+      <c r="J168" s="108"/>
       <c r="K168" s="81"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
@@ -13782,7 +13144,7 @@
       <c r="G169" s="82"/>
       <c r="H169" s="82"/>
       <c r="I169" s="81"/>
-      <c r="J169" s="109"/>
+      <c r="J169" s="108"/>
       <c r="K169" s="81"/>
     </row>
   </sheetData>
@@ -13790,15 +13152,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:K47">
     <sortCondition ref="C6:C47"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AN4:AQ4"/>
+  <mergeCells count="7">
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="M4:P4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B4:K4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:C169">
     <cfRule type="duplicateValues" dxfId="3" priority="105"/>
@@ -13892,11 +13253,11 @@
     </row>
     <row r="2" spans="2:7" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="2:7" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -13907,21 +13268,21 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="114"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="77" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D5" s="78" t="s">
         <v>24</v>
@@ -14770,1096 +14131,1275 @@
     <tabColor rgb="FF7EAC89"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E176"/>
+  <dimension ref="B1:F176"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B4" sqref="B4:D4"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="61" style="10" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="61" style="10" customWidth="1"/>
+    <col min="7" max="7" width="1.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="2:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-    </row>
-    <row r="3" spans="2:5" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+    </row>
+    <row r="3" spans="2:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-    </row>
-    <row r="5" spans="2:5" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>357</v>
+      <c r="C5" s="77" t="s">
+        <v>381</v>
       </c>
       <c r="D5" s="78" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="79" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="79" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="86"/>
-      <c r="C6" s="81"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="86"/>
-      <c r="C7" s="81"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="86"/>
-      <c r="C8" s="81"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
-      <c r="C9" s="81"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
-      <c r="C10" s="81"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="86"/>
-      <c r="C11" s="81"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
-      <c r="C12" s="81"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="86"/>
-      <c r="C13" s="81"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
-      <c r="C14" s="81"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="86"/>
-      <c r="C15" s="81"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="86"/>
-      <c r="C16" s="81"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="86"/>
-      <c r="C17" s="81"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="86"/>
-      <c r="C18" s="81"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="81"/>
-      <c r="E18" s="82"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
-      <c r="C19" s="81"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="86"/>
-      <c r="C20" s="81"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
-      <c r="C21" s="81"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="86"/>
-      <c r="C22" s="81"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="86"/>
-      <c r="C23" s="81"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="86"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="86"/>
-      <c r="C26" s="81"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="86"/>
-      <c r="C27" s="81"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="86"/>
-      <c r="C28" s="81"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="86"/>
-      <c r="C29" s="81"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="81"/>
       <c r="E29" s="81"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="81"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="86"/>
-      <c r="C30" s="81"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="81"/>
       <c r="E30" s="81"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="86"/>
-      <c r="C31" s="81"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="81"/>
       <c r="E31" s="81"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="81"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="86"/>
-      <c r="C32" s="81"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="81"/>
       <c r="E32" s="81"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="81"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="86"/>
-      <c r="C33" s="81"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="81"/>
       <c r="E33" s="81"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="81"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="86"/>
-      <c r="C34" s="81"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="81"/>
       <c r="E34" s="81"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="81"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="86"/>
-      <c r="C35" s="81"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="81"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="86"/>
-      <c r="C36" s="81"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="81"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="86"/>
-      <c r="C37" s="81"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="81"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="86"/>
-      <c r="C38" s="81"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="81"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="86"/>
-      <c r="C39" s="81"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="81"/>
       <c r="E39" s="81"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="81"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="86"/>
-      <c r="C40" s="81"/>
+      <c r="C40" s="86"/>
       <c r="D40" s="81"/>
       <c r="E40" s="81"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="81"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="86"/>
-      <c r="C41" s="81"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="81"/>
       <c r="E41" s="81"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="81"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="86"/>
-      <c r="C42" s="81"/>
+      <c r="C42" s="86"/>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="81"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="86"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="81"/>
       <c r="E43" s="81"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="81"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="86"/>
-      <c r="C44" s="81"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="81"/>
       <c r="E44" s="81"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="81"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="86"/>
-      <c r="C45" s="81"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="81"/>
       <c r="E45" s="81"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="81"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="86"/>
-      <c r="C46" s="81"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="81"/>
       <c r="E46" s="81"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="81"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="86"/>
-      <c r="C47" s="81"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="81"/>
       <c r="E47" s="81"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="81"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="86"/>
-      <c r="C48" s="81"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="81"/>
       <c r="E48" s="81"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="81"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="86"/>
-      <c r="C49" s="81"/>
+      <c r="C49" s="86"/>
       <c r="D49" s="81"/>
       <c r="E49" s="81"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="81"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="86"/>
-      <c r="C50" s="81"/>
+      <c r="C50" s="86"/>
       <c r="D50" s="81"/>
       <c r="E50" s="81"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="81"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="86"/>
-      <c r="C51" s="81"/>
+      <c r="C51" s="86"/>
       <c r="D51" s="81"/>
       <c r="E51" s="81"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="81"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="86"/>
-      <c r="C52" s="81"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="81"/>
       <c r="E52" s="81"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="81"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="86"/>
-      <c r="C53" s="81"/>
+      <c r="C53" s="86"/>
       <c r="D53" s="81"/>
       <c r="E53" s="81"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="81"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="86"/>
-      <c r="C54" s="81"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="81"/>
       <c r="E54" s="81"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="81"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="86"/>
-      <c r="C55" s="81"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="81"/>
       <c r="E55" s="81"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="81"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="86"/>
-      <c r="C56" s="81"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="81"/>
       <c r="E56" s="81"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="86"/>
-      <c r="C57" s="81"/>
+      <c r="C57" s="86"/>
       <c r="D57" s="81"/>
       <c r="E57" s="81"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="86"/>
-      <c r="C58" s="81"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="86"/>
-      <c r="C59" s="81"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="81"/>
       <c r="E59" s="81"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="86"/>
-      <c r="C60" s="81"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="81"/>
       <c r="E60" s="81"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="86"/>
-      <c r="C61" s="81"/>
+      <c r="C61" s="86"/>
       <c r="D61" s="81"/>
       <c r="E61" s="81"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="86"/>
-      <c r="C62" s="81"/>
+      <c r="C62" s="86"/>
       <c r="D62" s="81"/>
       <c r="E62" s="81"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="86"/>
-      <c r="C63" s="81"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="81"/>
       <c r="E63" s="81"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="81"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="86"/>
-      <c r="C64" s="81"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="81"/>
       <c r="E64" s="81"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="81"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="86"/>
-      <c r="C65" s="81"/>
+      <c r="C65" s="86"/>
       <c r="D65" s="81"/>
       <c r="E65" s="81"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="81"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="86"/>
-      <c r="C66" s="81"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="81"/>
       <c r="E66" s="81"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="81"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="86"/>
-      <c r="C67" s="81"/>
+      <c r="C67" s="86"/>
       <c r="D67" s="81"/>
       <c r="E67" s="81"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="81"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="86"/>
-      <c r="C68" s="81"/>
+      <c r="C68" s="86"/>
       <c r="D68" s="81"/>
       <c r="E68" s="81"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="81"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="86"/>
-      <c r="C69" s="81"/>
+      <c r="C69" s="86"/>
       <c r="D69" s="81"/>
       <c r="E69" s="81"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="81"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="86"/>
-      <c r="C70" s="81"/>
+      <c r="C70" s="86"/>
       <c r="D70" s="81"/>
       <c r="E70" s="81"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="81"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="86"/>
-      <c r="C71" s="81"/>
+      <c r="C71" s="86"/>
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="81"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="86"/>
-      <c r="C72" s="81"/>
+      <c r="C72" s="86"/>
       <c r="D72" s="81"/>
       <c r="E72" s="81"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="81"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="86"/>
-      <c r="C73" s="81"/>
+      <c r="C73" s="86"/>
       <c r="D73" s="81"/>
       <c r="E73" s="81"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="81"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="86"/>
-      <c r="C74" s="81"/>
+      <c r="C74" s="86"/>
       <c r="D74" s="81"/>
       <c r="E74" s="81"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="81"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="86"/>
-      <c r="C75" s="81"/>
+      <c r="C75" s="86"/>
       <c r="D75" s="81"/>
       <c r="E75" s="81"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="81"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="86"/>
-      <c r="C76" s="81"/>
+      <c r="C76" s="86"/>
       <c r="D76" s="81"/>
       <c r="E76" s="81"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="81"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="86"/>
-      <c r="C77" s="81"/>
+      <c r="C77" s="86"/>
       <c r="D77" s="81"/>
       <c r="E77" s="81"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="81"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="86"/>
-      <c r="C78" s="81"/>
+      <c r="C78" s="86"/>
       <c r="D78" s="81"/>
       <c r="E78" s="81"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="81"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="86"/>
-      <c r="C79" s="81"/>
+      <c r="C79" s="86"/>
       <c r="D79" s="81"/>
       <c r="E79" s="81"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="81"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="86"/>
-      <c r="C80" s="81"/>
+      <c r="C80" s="86"/>
       <c r="D80" s="81"/>
       <c r="E80" s="81"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="81"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="86"/>
-      <c r="C81" s="81"/>
+      <c r="C81" s="86"/>
       <c r="D81" s="81"/>
       <c r="E81" s="81"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="81"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="86"/>
-      <c r="C82" s="81"/>
+      <c r="C82" s="86"/>
       <c r="D82" s="81"/>
       <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="81"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="86"/>
-      <c r="C83" s="81"/>
+      <c r="C83" s="86"/>
       <c r="D83" s="81"/>
       <c r="E83" s="81"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="81"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="86"/>
-      <c r="C84" s="81"/>
+      <c r="C84" s="86"/>
       <c r="D84" s="81"/>
       <c r="E84" s="81"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="81"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="86"/>
-      <c r="C85" s="81"/>
+      <c r="C85" s="86"/>
       <c r="D85" s="81"/>
       <c r="E85" s="81"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="81"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="86"/>
-      <c r="C86" s="81"/>
+      <c r="C86" s="86"/>
       <c r="D86" s="81"/>
       <c r="E86" s="81"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="81"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="86"/>
-      <c r="C87" s="81"/>
+      <c r="C87" s="86"/>
       <c r="D87" s="81"/>
       <c r="E87" s="81"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="81"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="86"/>
-      <c r="C88" s="81"/>
+      <c r="C88" s="86"/>
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="81"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="86"/>
-      <c r="C89" s="81"/>
+      <c r="C89" s="86"/>
       <c r="D89" s="81"/>
       <c r="E89" s="81"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="81"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="86"/>
-      <c r="C90" s="81"/>
+      <c r="C90" s="86"/>
       <c r="D90" s="81"/>
       <c r="E90" s="81"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="81"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="86"/>
-      <c r="C91" s="81"/>
+      <c r="C91" s="86"/>
       <c r="D91" s="81"/>
       <c r="E91" s="81"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="81"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="86"/>
-      <c r="C92" s="81"/>
+      <c r="C92" s="86"/>
       <c r="D92" s="81"/>
       <c r="E92" s="81"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="81"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="86"/>
-      <c r="C93" s="81"/>
+      <c r="C93" s="86"/>
       <c r="D93" s="81"/>
       <c r="E93" s="81"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="81"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="86"/>
-      <c r="C94" s="81"/>
+      <c r="C94" s="86"/>
       <c r="D94" s="81"/>
       <c r="E94" s="81"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="81"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="86"/>
-      <c r="C95" s="81"/>
+      <c r="C95" s="86"/>
       <c r="D95" s="81"/>
       <c r="E95" s="81"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="81"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="86"/>
-      <c r="C96" s="81"/>
+      <c r="C96" s="86"/>
       <c r="D96" s="81"/>
       <c r="E96" s="81"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="81"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="86"/>
-      <c r="C97" s="81"/>
+      <c r="C97" s="86"/>
       <c r="D97" s="81"/>
       <c r="E97" s="81"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="81"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="86"/>
-      <c r="C98" s="81"/>
+      <c r="C98" s="86"/>
       <c r="D98" s="81"/>
       <c r="E98" s="81"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="81"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="86"/>
-      <c r="C99" s="81"/>
+      <c r="C99" s="86"/>
       <c r="D99" s="81"/>
       <c r="E99" s="81"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="81"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="86"/>
-      <c r="C100" s="81"/>
+      <c r="C100" s="86"/>
       <c r="D100" s="81"/>
       <c r="E100" s="81"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="81"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="86"/>
-      <c r="C101" s="81"/>
+      <c r="C101" s="86"/>
       <c r="D101" s="81"/>
       <c r="E101" s="81"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="81"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="86"/>
-      <c r="C102" s="81"/>
+      <c r="C102" s="86"/>
       <c r="D102" s="81"/>
       <c r="E102" s="81"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="81"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="86"/>
-      <c r="C103" s="81"/>
+      <c r="C103" s="86"/>
       <c r="D103" s="81"/>
       <c r="E103" s="81"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="81"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="86"/>
-      <c r="C104" s="81"/>
+      <c r="C104" s="86"/>
       <c r="D104" s="81"/>
       <c r="E104" s="81"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="81"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="86"/>
-      <c r="C105" s="81"/>
+      <c r="C105" s="86"/>
       <c r="D105" s="81"/>
       <c r="E105" s="81"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="81"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="86"/>
-      <c r="C106" s="81"/>
+      <c r="C106" s="86"/>
       <c r="D106" s="81"/>
       <c r="E106" s="81"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="81"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="86"/>
-      <c r="C107" s="81"/>
+      <c r="C107" s="86"/>
       <c r="D107" s="81"/>
       <c r="E107" s="81"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="81"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="86"/>
-      <c r="C108" s="81"/>
+      <c r="C108" s="86"/>
       <c r="D108" s="81"/>
       <c r="E108" s="81"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="81"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="86"/>
-      <c r="C109" s="81"/>
+      <c r="C109" s="86"/>
       <c r="D109" s="81"/>
       <c r="E109" s="81"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="81"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="86"/>
-      <c r="C110" s="81"/>
+      <c r="C110" s="86"/>
       <c r="D110" s="81"/>
       <c r="E110" s="81"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="81"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="86"/>
-      <c r="C111" s="81"/>
+      <c r="C111" s="86"/>
       <c r="D111" s="81"/>
       <c r="E111" s="81"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="81"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="86"/>
-      <c r="C112" s="81"/>
+      <c r="C112" s="86"/>
       <c r="D112" s="81"/>
       <c r="E112" s="81"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="81"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="86"/>
-      <c r="C113" s="81"/>
+      <c r="C113" s="86"/>
       <c r="D113" s="81"/>
       <c r="E113" s="81"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="81"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="86"/>
-      <c r="C114" s="81"/>
+      <c r="C114" s="86"/>
       <c r="D114" s="81"/>
       <c r="E114" s="81"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="81"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="86"/>
-      <c r="C115" s="81"/>
+      <c r="C115" s="86"/>
       <c r="D115" s="81"/>
       <c r="E115" s="81"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="81"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="86"/>
-      <c r="C116" s="81"/>
+      <c r="C116" s="86"/>
       <c r="D116" s="81"/>
       <c r="E116" s="81"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="81"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="86"/>
-      <c r="C117" s="81"/>
+      <c r="C117" s="86"/>
       <c r="D117" s="81"/>
       <c r="E117" s="81"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="81"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="86"/>
-      <c r="C118" s="81"/>
+      <c r="C118" s="86"/>
       <c r="D118" s="81"/>
       <c r="E118" s="81"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="81"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="86"/>
-      <c r="C119" s="81"/>
+      <c r="C119" s="86"/>
       <c r="D119" s="81"/>
       <c r="E119" s="81"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="81"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="86"/>
-      <c r="C120" s="81"/>
+      <c r="C120" s="86"/>
       <c r="D120" s="81"/>
       <c r="E120" s="81"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="81"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="86"/>
-      <c r="C121" s="81"/>
+      <c r="C121" s="86"/>
       <c r="D121" s="81"/>
       <c r="E121" s="81"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="81"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="86"/>
-      <c r="C122" s="81"/>
+      <c r="C122" s="86"/>
       <c r="D122" s="81"/>
       <c r="E122" s="81"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="81"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="86"/>
-      <c r="C123" s="81"/>
+      <c r="C123" s="86"/>
       <c r="D123" s="81"/>
       <c r="E123" s="81"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="81"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="86"/>
-      <c r="C124" s="81"/>
+      <c r="C124" s="86"/>
       <c r="D124" s="81"/>
       <c r="E124" s="81"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="81"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="86"/>
-      <c r="C125" s="81"/>
+      <c r="C125" s="86"/>
       <c r="D125" s="81"/>
       <c r="E125" s="81"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="81"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="86"/>
-      <c r="C126" s="81"/>
+      <c r="C126" s="86"/>
       <c r="D126" s="81"/>
       <c r="E126" s="81"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="81"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="86"/>
-      <c r="C127" s="81"/>
+      <c r="C127" s="86"/>
       <c r="D127" s="81"/>
       <c r="E127" s="81"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="81"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="86"/>
-      <c r="C128" s="81"/>
+      <c r="C128" s="86"/>
       <c r="D128" s="81"/>
       <c r="E128" s="81"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="81"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="86"/>
-      <c r="C129" s="81"/>
+      <c r="C129" s="86"/>
       <c r="D129" s="81"/>
       <c r="E129" s="81"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="81"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="86"/>
-      <c r="C130" s="81"/>
+      <c r="C130" s="86"/>
       <c r="D130" s="81"/>
       <c r="E130" s="81"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="81"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="86"/>
-      <c r="C131" s="81"/>
+      <c r="C131" s="86"/>
       <c r="D131" s="81"/>
       <c r="E131" s="81"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="81"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="86"/>
-      <c r="C132" s="81"/>
+      <c r="C132" s="86"/>
       <c r="D132" s="81"/>
       <c r="E132" s="81"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="81"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="86"/>
-      <c r="C133" s="81"/>
+      <c r="C133" s="86"/>
       <c r="D133" s="81"/>
       <c r="E133" s="81"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="81"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="86"/>
-      <c r="C134" s="81"/>
+      <c r="C134" s="86"/>
       <c r="D134" s="81"/>
       <c r="E134" s="81"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="81"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="86"/>
-      <c r="C135" s="81"/>
+      <c r="C135" s="86"/>
       <c r="D135" s="81"/>
       <c r="E135" s="81"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="81"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="86"/>
-      <c r="C136" s="81"/>
+      <c r="C136" s="86"/>
       <c r="D136" s="81"/>
       <c r="E136" s="81"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="81"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="86"/>
-      <c r="C137" s="81"/>
+      <c r="C137" s="86"/>
       <c r="D137" s="81"/>
       <c r="E137" s="81"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="81"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="86"/>
-      <c r="C138" s="81"/>
+      <c r="C138" s="86"/>
       <c r="D138" s="81"/>
       <c r="E138" s="81"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="81"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="86"/>
-      <c r="C139" s="81"/>
+      <c r="C139" s="86"/>
       <c r="D139" s="81"/>
       <c r="E139" s="81"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="81"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="86"/>
-      <c r="C140" s="81"/>
+      <c r="C140" s="86"/>
       <c r="D140" s="81"/>
       <c r="E140" s="81"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="81"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="86"/>
-      <c r="C141" s="81"/>
+      <c r="C141" s="86"/>
       <c r="D141" s="81"/>
       <c r="E141" s="81"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="81"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="86"/>
-      <c r="C142" s="81"/>
+      <c r="C142" s="86"/>
       <c r="D142" s="81"/>
       <c r="E142" s="81"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="81"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="86"/>
-      <c r="C143" s="81"/>
+      <c r="C143" s="86"/>
       <c r="D143" s="81"/>
       <c r="E143" s="81"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="81"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="86"/>
-      <c r="C144" s="81"/>
+      <c r="C144" s="86"/>
       <c r="D144" s="81"/>
       <c r="E144" s="81"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="81"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="86"/>
-      <c r="C145" s="81"/>
+      <c r="C145" s="86"/>
       <c r="D145" s="81"/>
       <c r="E145" s="81"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="81"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="86"/>
-      <c r="C146" s="81"/>
+      <c r="C146" s="86"/>
       <c r="D146" s="81"/>
       <c r="E146" s="81"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="81"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="86"/>
-      <c r="C147" s="81"/>
+      <c r="C147" s="86"/>
       <c r="D147" s="81"/>
       <c r="E147" s="81"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="81"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="86"/>
-      <c r="C148" s="81"/>
+      <c r="C148" s="86"/>
       <c r="D148" s="81"/>
       <c r="E148" s="81"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="81"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="86"/>
-      <c r="C149" s="81"/>
+      <c r="C149" s="86"/>
       <c r="D149" s="81"/>
       <c r="E149" s="81"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="81"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="86"/>
-      <c r="C150" s="81"/>
+      <c r="C150" s="86"/>
       <c r="D150" s="81"/>
       <c r="E150" s="81"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="81"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="86"/>
-      <c r="C151" s="81"/>
+      <c r="C151" s="86"/>
       <c r="D151" s="81"/>
       <c r="E151" s="81"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="81"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="86"/>
-      <c r="C152" s="81"/>
+      <c r="C152" s="86"/>
       <c r="D152" s="81"/>
       <c r="E152" s="81"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="81"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="86"/>
-      <c r="C153" s="81"/>
+      <c r="C153" s="86"/>
       <c r="D153" s="81"/>
       <c r="E153" s="81"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="81"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="86"/>
-      <c r="C154" s="81"/>
+      <c r="C154" s="86"/>
       <c r="D154" s="81"/>
       <c r="E154" s="81"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="81"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="86"/>
-      <c r="C155" s="81"/>
+      <c r="C155" s="86"/>
       <c r="D155" s="81"/>
       <c r="E155" s="81"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="81"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="86"/>
-      <c r="C156" s="81"/>
+      <c r="C156" s="86"/>
       <c r="D156" s="81"/>
       <c r="E156" s="81"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="81"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="86"/>
-      <c r="C157" s="81"/>
+      <c r="C157" s="86"/>
       <c r="D157" s="81"/>
       <c r="E157" s="81"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="81"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="86"/>
-      <c r="C158" s="81"/>
+      <c r="C158" s="86"/>
       <c r="D158" s="81"/>
       <c r="E158" s="81"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="81"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="86"/>
-      <c r="C159" s="81"/>
+      <c r="C159" s="86"/>
       <c r="D159" s="81"/>
       <c r="E159" s="81"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="81"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="86"/>
-      <c r="C160" s="81"/>
+      <c r="C160" s="86"/>
       <c r="D160" s="81"/>
       <c r="E160" s="81"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="81"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="86"/>
-      <c r="C161" s="81"/>
+      <c r="C161" s="86"/>
       <c r="D161" s="81"/>
       <c r="E161" s="81"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="81"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="86"/>
-      <c r="C162" s="81"/>
+      <c r="C162" s="86"/>
       <c r="D162" s="81"/>
       <c r="E162" s="81"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="81"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="86"/>
-      <c r="C163" s="81"/>
+      <c r="C163" s="86"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="81"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="86"/>
-      <c r="C164" s="81"/>
+      <c r="C164" s="86"/>
       <c r="D164" s="81"/>
       <c r="E164" s="81"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="81"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="86"/>
-      <c r="C165" s="81"/>
+      <c r="C165" s="86"/>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="81"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="86"/>
-      <c r="C166" s="81"/>
+      <c r="C166" s="86"/>
       <c r="D166" s="81"/>
       <c r="E166" s="81"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="81"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="86"/>
-      <c r="C167" s="81"/>
+      <c r="C167" s="86"/>
       <c r="D167" s="81"/>
       <c r="E167" s="81"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="81"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="86"/>
-      <c r="C168" s="81"/>
+      <c r="C168" s="86"/>
       <c r="D168" s="81"/>
       <c r="E168" s="81"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="81"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="86"/>
-      <c r="C169" s="81"/>
+      <c r="C169" s="86"/>
       <c r="D169" s="81"/>
       <c r="E169" s="81"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="81"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="86"/>
-      <c r="C170" s="81"/>
+      <c r="C170" s="86"/>
       <c r="D170" s="81"/>
       <c r="E170" s="81"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="81"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="86"/>
-      <c r="C171" s="81"/>
+      <c r="C171" s="86"/>
       <c r="D171" s="81"/>
       <c r="E171" s="81"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="81"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="86"/>
-      <c r="C172" s="81"/>
+      <c r="C172" s="86"/>
       <c r="D172" s="81"/>
       <c r="E172" s="81"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="81"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="86"/>
-      <c r="C173" s="81"/>
+      <c r="C173" s="86"/>
       <c r="D173" s="81"/>
       <c r="E173" s="81"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="81"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="86"/>
-      <c r="C174" s="81"/>
+      <c r="C174" s="86"/>
       <c r="D174" s="81"/>
       <c r="E174" s="81"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="81"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="86"/>
-      <c r="C175" s="81"/>
+      <c r="C175" s="86"/>
       <c r="D175" s="81"/>
       <c r="E175" s="81"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="81"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="86"/>
-      <c r="C176" s="81"/>
+      <c r="C176" s="86"/>
       <c r="D176" s="81"/>
       <c r="E176" s="81"/>
+      <c r="F176" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:E176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:F176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15876,7 +15416,7 @@
           <x14:formula1>
             <xm:f>'#Ref'!$P$2:$P$40</xm:f>
           </x14:formula1>
-          <xm:sqref>C133</xm:sqref>
+          <xm:sqref>D133</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15919,10 +15459,10 @@
     </row>
     <row r="2" spans="2:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -15943,23 +15483,23 @@
       <c r="H4" s="90"/>
     </row>
     <row r="5" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="91" t="s">
         <v>228</v>
       </c>
@@ -15977,8 +15517,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
-        <v>375</v>
+      <c r="B7" s="102" t="s">
+        <v>373</v>
       </c>
       <c r="C7" s="92" t="s">
         <v>234</v>
@@ -16000,8 +15540,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
-        <v>374</v>
+      <c r="B8" s="102" t="s">
+        <v>372</v>
       </c>
       <c r="C8" s="92" t="s">
         <v>235</v>
@@ -16023,8 +15563,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
-        <v>373</v>
+      <c r="B9" s="102" t="s">
+        <v>371</v>
       </c>
       <c r="C9" s="92" t="s">
         <v>236</v>
@@ -16046,8 +15586,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="103" t="s">
-        <v>372</v>
+      <c r="B10" s="102" t="s">
+        <v>370</v>
       </c>
       <c r="C10" s="92" t="s">
         <v>237</v>
@@ -16069,8 +15609,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="103" t="s">
-        <v>371</v>
+      <c r="B11" s="102" t="s">
+        <v>369</v>
       </c>
       <c r="C11" s="92" t="s">
         <v>238</v>
@@ -16462,7 +16002,7 @@
   </sheetPr>
   <dimension ref="A1:CU392"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -16542,7 +16082,7 @@
     </row>
     <row r="2" spans="1:27" s="13" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="17" t="s">
@@ -16561,8 +16101,8 @@
         <v>50</v>
       </c>
       <c r="J2" s="18"/>
-      <c r="K2" s="99" t="s">
-        <v>367</v>
+      <c r="K2" s="98" t="s">
+        <v>365</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="20" t="s">
@@ -16594,7 +16134,7 @@
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="17" t="s">
@@ -16613,8 +16153,8 @@
         <v>61</v>
       </c>
       <c r="J3" s="18"/>
-      <c r="K3" s="100" t="s">
-        <v>368</v>
+      <c r="K3" s="99" t="s">
+        <v>366</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
@@ -16646,7 +16186,7 @@
     </row>
     <row r="4" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -16663,8 +16203,8 @@
         <v>71</v>
       </c>
       <c r="J4" s="18"/>
-      <c r="K4" s="101" t="s">
-        <v>369</v>
+      <c r="K4" s="100" t="s">
+        <v>367</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="20" t="s">
@@ -16696,7 +16236,7 @@
     </row>
     <row r="5" spans="1:27" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -16713,8 +16253,8 @@
         <v>81</v>
       </c>
       <c r="J5" s="18"/>
-      <c r="K5" s="102" t="s">
-        <v>370</v>
+      <c r="K5" s="101" t="s">
+        <v>368</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="20" t="s">
@@ -16746,7 +16286,7 @@
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
@@ -16793,7 +16333,7 @@
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="30" t="s">
@@ -16836,7 +16376,7 @@
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="30" t="s">
@@ -16874,16 +16414,16 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="H9" s="125" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="H9" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
       <c r="P9" s="19" t="s">
         <v>112</v>
       </c>
@@ -16905,14 +16445,14 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="121" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
       <c r="I10" s="27"/>
       <c r="J10" s="28" t="s">
         <v>118</v>
@@ -17240,11 +16780,11 @@
       <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
       <c r="P17" s="19" t="s">
         <v>171</v>
       </c>
@@ -17313,15 +16853,15 @@
       <c r="E21" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="127" t="s">
+      <c r="H21" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="127" t="s">
+      <c r="I21" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
       <c r="P21" s="19" t="s">
         <v>185</v>
       </c>
@@ -17341,11 +16881,11 @@
       <c r="E22" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
       <c r="P22" s="19" t="s">
         <v>190</v>
       </c>
@@ -17362,7 +16902,7 @@
       <c r="E23" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="H23" s="127"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="46">
         <v>1</v>
       </c>
@@ -17388,7 +16928,7 @@
       <c r="E24" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="H24" s="127"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="46">
         <v>0.9</v>
       </c>
